--- a/cfd/prof/cfd_all.xlsx
+++ b/cfd/prof/cfd_all.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="820" windowWidth="23120" windowHeight="15540"/>
+    <workbookView xWindow="1780" yWindow="1300" windowWidth="23120" windowHeight="15540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="10" r:id="rId1"/>
@@ -725,7 +725,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -762,13 +762,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1079,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U75"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A46" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1160,83 +1161,83 @@
         <v>219</v>
       </c>
       <c r="B2">
-        <f>1/B1</f>
+        <f t="shared" ref="B2:I2" si="0">1/B1</f>
         <v>1</v>
       </c>
       <c r="C2">
-        <f>1/C1</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="D2">
-        <f>1/D1</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E2">
-        <f>1/E1</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="F2">
-        <f>1/F1</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G2" t="e">
-        <f>1/G1</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="H2">
-        <f>1/H1</f>
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="I2" t="e">
-        <f>1/I1</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="J2" s="5" t="e">
-        <f>$B2*$B2+$C2*$C2+$D2*$D2+$E2*$E2+$F2*$F2+$G2*$G2+$H2*$H2+$I2*$I2</f>
+        <f t="shared" ref="J2:J33" si="1">$B2*$B2+$C2*$C2+$D2*$D2+$E2*$E2+$F2*$F2+$G2*$G2+$H2*$H2+$I2*$I2</f>
         <v>#VALUE!</v>
       </c>
       <c r="K2" s="3" t="e">
-        <f>SQRT($J2)</f>
+        <f t="shared" ref="K2:K33" si="2">SQRT($J2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="L2" s="3" t="e">
-        <f>B2/$K2</f>
+        <f t="shared" ref="L2:L33" si="3">B2/$K2</f>
         <v>#VALUE!</v>
       </c>
       <c r="M2" s="3" t="e">
-        <f>C2/$K2</f>
+        <f t="shared" ref="M2:M33" si="4">C2/$K2</f>
         <v>#VALUE!</v>
       </c>
       <c r="N2" s="3" t="e">
-        <f>D2/$K2</f>
+        <f t="shared" ref="N2:N33" si="5">D2/$K2</f>
         <v>#VALUE!</v>
       </c>
       <c r="O2" s="3" t="e">
-        <f>E2/$K2</f>
+        <f t="shared" ref="O2:O33" si="6">E2/$K2</f>
         <v>#VALUE!</v>
       </c>
       <c r="P2" s="3" t="e">
-        <f>F2/$K2</f>
+        <f t="shared" ref="P2:P33" si="7">F2/$K2</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q2" s="3" t="e">
-        <f>G2/$K2</f>
+        <f t="shared" ref="Q2:Q33" si="8">G2/$K2</f>
         <v>#VALUE!</v>
       </c>
       <c r="R2" s="3" t="e">
-        <f>H2/$K2</f>
+        <f t="shared" ref="R2:R33" si="9">H2/$K2</f>
         <v>#VALUE!</v>
       </c>
       <c r="S2" s="3" t="e">
-        <f>I2/$K2</f>
+        <f t="shared" ref="S2:S33" si="10">I2/$K2</f>
         <v>#VALUE!</v>
       </c>
       <c r="T2" s="3" t="e">
-        <f>(L2-$L$75)^2+(M2-$M$75)^2+(N2-$N$75)^2+(O2-$O$75)^2+(P2-$P$75)^2+(Q2-$Q$75)^2+(R2-$R$75)^2+(S2-$S$75)^2</f>
+        <f t="shared" ref="T2:T33" si="11">(L2-$L$75)^2+(M2-$M$75)^2+(N2-$N$75)^2+(O2-$O$75)^2+(P2-$P$75)^2+(Q2-$Q$75)^2+(R2-$R$75)^2+(S2-$S$75)^2</f>
         <v>#VALUE!</v>
       </c>
       <c r="U2" t="e">
-        <f>(L2-$L$76)^2+(M2-$M$76)^2+(N2-$N$76)^2+(O2-$O$76)^2+(P2-$P$76)^2+(Q2-$Q$76)^2+(R2-$R$76)^2+(S2-$S$76)^2</f>
+        <f t="shared" ref="U2:U33" si="12">(L2-$L$76)^2+(M2-$M$76)^2+(N2-$N$76)^2+(O2-$O$76)^2+(P2-$P$76)^2+(Q2-$Q$76)^2+(R2-$R$76)^2+(S2-$S$76)^2</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1269,51 +1270,51 @@
         <v>16.983546</v>
       </c>
       <c r="J3" s="2">
-        <f>$B3*$B3+$C3*$C3+$D3*$D3+$E3*$E3+$F3*$F3+$G3*$G3+$H3*$H3+$I3*$I3</f>
+        <f t="shared" si="1"/>
         <v>6363.3861673633</v>
       </c>
       <c r="K3">
-        <f>SQRT($J3)</f>
+        <f t="shared" si="2"/>
         <v>79.770835318199474</v>
       </c>
       <c r="L3">
-        <f>B3/$K3</f>
+        <f t="shared" si="3"/>
         <v>0.17850354635500887</v>
       </c>
       <c r="M3">
-        <f>C3/$K3</f>
+        <f t="shared" si="4"/>
         <v>0.4108129101228481</v>
       </c>
       <c r="N3">
-        <f>D3/$K3</f>
+        <f t="shared" si="5"/>
         <v>0.36036730573688136</v>
       </c>
       <c r="O3">
-        <f>E3/$K3</f>
+        <f t="shared" si="6"/>
         <v>0.41074121725443086</v>
       </c>
       <c r="P3">
-        <f>F3/$K3</f>
+        <f t="shared" si="7"/>
         <v>0.43496925739329434</v>
       </c>
       <c r="Q3">
-        <f>G3/$K3</f>
+        <f t="shared" si="8"/>
         <v>0.43863344116213737</v>
       </c>
       <c r="R3">
-        <f>H3/$K3</f>
+        <f t="shared" si="9"/>
         <v>0.27179136226311451</v>
       </c>
       <c r="S3">
-        <f>I3/$K3</f>
+        <f t="shared" si="10"/>
         <v>0.21290420154501324</v>
       </c>
       <c r="T3">
-        <f>(L3-$L$75)^2+(M3-$M$75)^2+(N3-$N$75)^2+(O3-$O$75)^2+(P3-$P$75)^2+(Q3-$Q$75)^2+(R3-$R$75)^2+(S3-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.97441004996537883</v>
       </c>
       <c r="U3">
-        <f>(L3-$L$76)^2+(M3-$M$76)^2+(N3-$N$76)^2+(O3-$O$76)^2+(P3-$P$76)^2+(Q3-$Q$76)^2+(R3-$R$76)^2+(S3-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>1.0633234726448417</v>
       </c>
     </row>
@@ -1346,51 +1347,51 @@
         <v>1.9706840000000001</v>
       </c>
       <c r="J4" s="2">
-        <f>$B4*$B4+$C4*$C4+$D4*$D4+$E4*$E4+$F4*$F4+$G4*$G4+$H4*$H4+$I4*$I4</f>
+        <f t="shared" si="1"/>
         <v>82.644225952490999</v>
       </c>
       <c r="K4">
-        <f>SQRT($J4)</f>
+        <f t="shared" si="2"/>
         <v>9.0908869728146442</v>
       </c>
       <c r="L4">
-        <f>B4/$K4</f>
+        <f t="shared" si="3"/>
         <v>0.18014908830100046</v>
       </c>
       <c r="M4">
-        <f>C4/$K4</f>
+        <f t="shared" si="4"/>
         <v>0.4050685055277809</v>
       </c>
       <c r="N4">
-        <f>D4/$K4</f>
+        <f t="shared" si="5"/>
         <v>0.36785123497851935</v>
       </c>
       <c r="O4">
-        <f>E4/$K4</f>
+        <f t="shared" si="6"/>
         <v>0.4240192416347397</v>
       </c>
       <c r="P4">
-        <f>F4/$K4</f>
+        <f t="shared" si="7"/>
         <v>0.42807132149341104</v>
       </c>
       <c r="Q4">
-        <f>G4/$K4</f>
+        <f t="shared" si="8"/>
         <v>0.42560808550038159</v>
       </c>
       <c r="R4">
-        <f>H4/$K4</f>
+        <f t="shared" si="9"/>
         <v>0.27745257503944848</v>
       </c>
       <c r="S4">
-        <f>I4/$K4</f>
+        <f t="shared" si="10"/>
         <v>0.21677576741335872</v>
       </c>
       <c r="T4">
-        <f>(L4-$L$75)^2+(M4-$M$75)^2+(N4-$N$75)^2+(O4-$O$75)^2+(P4-$P$75)^2+(Q4-$Q$75)^2+(R4-$R$75)^2+(S4-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.96147698878565346</v>
       </c>
       <c r="U4">
-        <f>(L4-$L$76)^2+(M4-$M$76)^2+(N4-$N$76)^2+(O4-$O$76)^2+(P4-$P$76)^2+(Q4-$Q$76)^2+(R4-$R$76)^2+(S4-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>1.0503515454691095</v>
       </c>
     </row>
@@ -1423,51 +1424,51 @@
         <v>1.9706840000000001</v>
       </c>
       <c r="J5" s="2">
-        <f>$B5*$B5+$C5*$C5+$D5*$D5+$E5*$E5+$F5*$F5+$G5*$G5+$H5*$H5+$I5*$I5</f>
+        <f t="shared" si="1"/>
         <v>82.644225952490999</v>
       </c>
       <c r="K5">
-        <f>SQRT($J5)</f>
+        <f t="shared" si="2"/>
         <v>9.0908869728146442</v>
       </c>
       <c r="L5">
-        <f>B5/$K5</f>
+        <f t="shared" si="3"/>
         <v>0.18014908830100046</v>
       </c>
       <c r="M5">
-        <f>C5/$K5</f>
+        <f t="shared" si="4"/>
         <v>0.4050685055277809</v>
       </c>
       <c r="N5">
-        <f>D5/$K5</f>
+        <f t="shared" si="5"/>
         <v>0.36785123497851935</v>
       </c>
       <c r="O5">
-        <f>E5/$K5</f>
+        <f t="shared" si="6"/>
         <v>0.4240192416347397</v>
       </c>
       <c r="P5">
-        <f>F5/$K5</f>
+        <f t="shared" si="7"/>
         <v>0.42807132149341104</v>
       </c>
       <c r="Q5">
-        <f>G5/$K5</f>
+        <f t="shared" si="8"/>
         <v>0.42560808550038159</v>
       </c>
       <c r="R5">
-        <f>H5/$K5</f>
+        <f t="shared" si="9"/>
         <v>0.27745257503944848</v>
       </c>
       <c r="S5">
-        <f>I5/$K5</f>
+        <f t="shared" si="10"/>
         <v>0.21677576741335872</v>
       </c>
       <c r="T5">
-        <f>(L5-$L$75)^2+(M5-$M$75)^2+(N5-$N$75)^2+(O5-$O$75)^2+(P5-$P$75)^2+(Q5-$Q$75)^2+(R5-$R$75)^2+(S5-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.96147698878565346</v>
       </c>
       <c r="U5">
-        <f>(L5-$L$76)^2+(M5-$M$76)^2+(N5-$N$76)^2+(O5-$O$76)^2+(P5-$P$76)^2+(Q5-$Q$76)^2+(R5-$R$76)^2+(S5-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>1.0503515454691095</v>
       </c>
     </row>
@@ -1500,51 +1501,51 @@
         <v>2.010392</v>
       </c>
       <c r="J6" s="2">
-        <f>$B6*$B6+$C6*$C6+$D6*$D6+$E6*$E6+$F6*$F6+$G6*$G6+$H6*$H6+$I6*$I6</f>
+        <f t="shared" si="1"/>
         <v>83.140175262617007</v>
       </c>
       <c r="K6">
-        <f>SQRT($J6)</f>
+        <f t="shared" si="2"/>
         <v>9.1181234507225781</v>
       </c>
       <c r="L6">
-        <f>B6/$K6</f>
+        <f t="shared" si="3"/>
         <v>0.18017226997182315</v>
       </c>
       <c r="M6">
-        <f>C6/$K6</f>
+        <f t="shared" si="4"/>
         <v>0.40405572702659975</v>
       </c>
       <c r="N6">
-        <f>D6/$K6</f>
+        <f t="shared" si="5"/>
         <v>0.37078769752037927</v>
       </c>
       <c r="O6">
-        <f>E6/$K6</f>
+        <f t="shared" si="6"/>
         <v>0.42298659596392713</v>
       </c>
       <c r="P6">
-        <f>F6/$K6</f>
+        <f t="shared" si="7"/>
         <v>0.42712604419622857</v>
       </c>
       <c r="Q6">
-        <f>G6/$K6</f>
+        <f t="shared" si="8"/>
         <v>0.42453011531591445</v>
       </c>
       <c r="R6">
-        <f>H6/$K6</f>
+        <f t="shared" si="9"/>
         <v>0.27676791322670824</v>
       </c>
       <c r="S6">
-        <f>I6/$K6</f>
+        <f t="shared" si="10"/>
         <v>0.22048308633512564</v>
       </c>
       <c r="T6">
-        <f>(L6-$L$75)^2+(M6-$M$75)^2+(N6-$N$75)^2+(O6-$O$75)^2+(P6-$P$75)^2+(Q6-$Q$75)^2+(R6-$R$75)^2+(S6-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.95509155526924649</v>
       </c>
       <c r="U6">
-        <f>(L6-$L$76)^2+(M6-$M$76)^2+(N6-$N$76)^2+(O6-$O$76)^2+(P6-$P$76)^2+(Q6-$Q$76)^2+(R6-$R$76)^2+(S6-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>1.0438162037272845</v>
       </c>
     </row>
@@ -1577,51 +1578,51 @@
         <v>135.93662</v>
       </c>
       <c r="J7" s="2">
-        <f>$B7*$B7+$C7*$C7+$D7*$D7+$E7*$E7+$F7*$F7+$G7*$G7+$H7*$H7+$I7*$I7</f>
+        <f t="shared" si="1"/>
         <v>394366.76942065684</v>
       </c>
       <c r="K7">
-        <f>SQRT($J7)</f>
+        <f t="shared" si="2"/>
         <v>627.98628123602896</v>
       </c>
       <c r="L7">
-        <f>B7/$K7</f>
+        <f t="shared" si="3"/>
         <v>0.18130739381105396</v>
       </c>
       <c r="M7">
-        <f>C7/$K7</f>
+        <f t="shared" si="4"/>
         <v>0.40493063240090854</v>
       </c>
       <c r="N7">
-        <f>D7/$K7</f>
+        <f t="shared" si="5"/>
         <v>0.36708190272290048</v>
       </c>
       <c r="O7">
-        <f>E7/$K7</f>
+        <f t="shared" si="6"/>
         <v>0.42497047941035299</v>
       </c>
       <c r="P7">
-        <f>F7/$K7</f>
+        <f t="shared" si="7"/>
         <v>0.42964383468528605</v>
       </c>
       <c r="Q7">
-        <f>G7/$K7</f>
+        <f t="shared" si="8"/>
         <v>0.42382759616362448</v>
       </c>
       <c r="R7">
-        <f>H7/$K7</f>
+        <f t="shared" si="9"/>
         <v>0.27700058615551165</v>
       </c>
       <c r="S7">
-        <f>I7/$K7</f>
+        <f t="shared" si="10"/>
         <v>0.21646431468605309</v>
       </c>
       <c r="T7">
-        <f>(L7-$L$75)^2+(M7-$M$75)^2+(N7-$N$75)^2+(O7-$O$75)^2+(P7-$P$75)^2+(Q7-$Q$75)^2+(R7-$R$75)^2+(S7-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.96078363482562512</v>
       </c>
       <c r="U7">
-        <f>(L7-$L$76)^2+(M7-$M$76)^2+(N7-$N$76)^2+(O7-$O$76)^2+(P7-$P$76)^2+(Q7-$Q$76)^2+(R7-$R$76)^2+(S7-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>1.0498012448875742</v>
       </c>
     </row>
@@ -1654,51 +1655,51 @@
         <v>1.9706840000000001</v>
       </c>
       <c r="J8" s="2">
-        <f>$B8*$B8+$C8*$C8+$D8*$D8+$E8*$E8+$F8*$F8+$G8*$G8+$H8*$H8+$I8*$I8</f>
+        <f t="shared" si="1"/>
         <v>82.779134633840002</v>
       </c>
       <c r="K8">
-        <f>SQRT($J8)</f>
+        <f t="shared" si="2"/>
         <v>9.0983039427049253</v>
       </c>
       <c r="L8">
-        <f>B8/$K8</f>
+        <f t="shared" si="3"/>
         <v>0.18000223012038741</v>
       </c>
       <c r="M8">
-        <f>C8/$K8</f>
+        <f t="shared" si="4"/>
         <v>0.40473829223441099</v>
       </c>
       <c r="N8">
-        <f>D8/$K8</f>
+        <f t="shared" si="5"/>
         <v>0.36755136133711103</v>
       </c>
       <c r="O8">
-        <f>E8/$K8</f>
+        <f t="shared" si="6"/>
         <v>0.42367357963356789</v>
       </c>
       <c r="P8">
-        <f>F8/$K8</f>
+        <f t="shared" si="7"/>
         <v>0.42772235622225685</v>
       </c>
       <c r="Q8">
-        <f>G8/$K8</f>
+        <f t="shared" si="8"/>
         <v>0.42526112826801216</v>
       </c>
       <c r="R8">
-        <f>H8/$K8</f>
+        <f t="shared" si="9"/>
         <v>0.28015034626796764</v>
       </c>
       <c r="S8">
-        <f>I8/$K8</f>
+        <f t="shared" si="10"/>
         <v>0.21659905103303417</v>
       </c>
       <c r="T8">
-        <f>(L8-$L$75)^2+(M8-$M$75)^2+(N8-$N$75)^2+(O8-$O$75)^2+(P8-$P$75)^2+(Q8-$Q$75)^2+(R8-$R$75)^2+(S8-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.96171547356952258</v>
       </c>
       <c r="U8">
-        <f>(L8-$L$76)^2+(M8-$M$76)^2+(N8-$N$76)^2+(O8-$O$76)^2+(P8-$P$76)^2+(Q8-$Q$76)^2+(R8-$R$76)^2+(S8-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>1.0505494223621838</v>
       </c>
     </row>
@@ -1731,51 +1732,51 @@
         <v>2.4779810000000002</v>
       </c>
       <c r="J9" s="2">
-        <f>$B9*$B9+$C9*$C9+$D9*$D9+$E9*$E9+$F9*$F9+$G9*$G9+$H9*$H9+$I9*$I9</f>
+        <f t="shared" si="1"/>
         <v>130.02706735954402</v>
       </c>
       <c r="K9">
-        <f>SQRT($J9)</f>
+        <f t="shared" si="2"/>
         <v>11.402941171449759</v>
       </c>
       <c r="L9">
-        <f>B9/$K9</f>
+        <f t="shared" si="3"/>
         <v>0.18337540890199558</v>
       </c>
       <c r="M9">
-        <f>C9/$K9</f>
+        <f t="shared" si="4"/>
         <v>0.40963177216901603</v>
       </c>
       <c r="N9">
-        <f>D9/$K9</f>
+        <f t="shared" si="5"/>
         <v>0.36491181857697558</v>
       </c>
       <c r="O9">
-        <f>E9/$K9</f>
+        <f t="shared" si="6"/>
         <v>0.428322827116632</v>
       </c>
       <c r="P9">
-        <f>F9/$K9</f>
+        <f t="shared" si="7"/>
         <v>0.42458396717173058</v>
       </c>
       <c r="Q9">
-        <f>G9/$K9</f>
+        <f t="shared" si="8"/>
         <v>0.42256054184197711</v>
       </c>
       <c r="R9">
-        <f>H9/$K9</f>
+        <f t="shared" si="9"/>
         <v>0.2755019036549663</v>
       </c>
       <c r="S9">
-        <f>I9/$K9</f>
+        <f t="shared" si="10"/>
         <v>0.21731068877249604</v>
       </c>
       <c r="T9">
-        <f>(L9-$L$75)^2+(M9-$M$75)^2+(N9-$N$75)^2+(O9-$O$75)^2+(P9-$P$75)^2+(Q9-$Q$75)^2+(R9-$R$75)^2+(S9-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.95887518527981108</v>
       </c>
       <c r="U9">
-        <f>(L9-$L$76)^2+(M9-$M$76)^2+(N9-$N$76)^2+(O9-$O$76)^2+(P9-$P$76)^2+(Q9-$Q$76)^2+(R9-$R$76)^2+(S9-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>1.0476101058975031</v>
       </c>
     </row>
@@ -1808,51 +1809,51 @@
         <v>4.1046279999999999</v>
       </c>
       <c r="J10" s="2">
-        <f>$B10*$B10+$C10*$C10+$D10*$D10+$E10*$E10+$F10*$F10+$G10*$G10+$H10*$H10+$I10*$I10</f>
+        <f t="shared" si="1"/>
         <v>429.05269505924798</v>
       </c>
       <c r="K10">
-        <f>SQRT($J10)</f>
+        <f t="shared" si="2"/>
         <v>20.713587208864812</v>
       </c>
       <c r="L10">
-        <f>B10/$K10</f>
+        <f t="shared" si="3"/>
         <v>0.16972159213906948</v>
       </c>
       <c r="M10">
-        <f>C10/$K10</f>
+        <f t="shared" si="4"/>
         <v>0.43151236480056548</v>
       </c>
       <c r="N10">
-        <f>D10/$K10</f>
+        <f t="shared" si="5"/>
         <v>0.33500778643644202</v>
       </c>
       <c r="O10">
-        <f>E10/$K10</f>
+        <f t="shared" si="6"/>
         <v>0.38253827886503744</v>
       </c>
       <c r="P10">
-        <f>F10/$K10</f>
+        <f t="shared" si="7"/>
         <v>0.4563776377639841</v>
       </c>
       <c r="Q10">
-        <f>G10/$K10</f>
+        <f t="shared" si="8"/>
         <v>0.46024548543286647</v>
       </c>
       <c r="R10">
-        <f>H10/$K10</f>
+        <f t="shared" si="9"/>
         <v>0.25894326974443693</v>
       </c>
       <c r="S10">
-        <f>I10/$K10</f>
+        <f t="shared" si="10"/>
         <v>0.19816113735448676</v>
       </c>
       <c r="T10">
-        <f>(L10-$L$75)^2+(M10-$M$75)^2+(N10-$N$75)^2+(O10-$O$75)^2+(P10-$P$75)^2+(Q10-$Q$75)^2+(R10-$R$75)^2+(S10-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>1.0225486028389648</v>
       </c>
       <c r="U10">
-        <f>(L10-$L$76)^2+(M10-$M$76)^2+(N10-$N$76)^2+(O10-$O$76)^2+(P10-$P$76)^2+(Q10-$Q$76)^2+(R10-$R$76)^2+(S10-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>1.1124776782043149</v>
       </c>
     </row>
@@ -1885,51 +1886,51 @@
         <v>0.56096199999999996</v>
       </c>
       <c r="J11" s="2">
-        <f>$B11*$B11+$C11*$C11+$D11*$D11+$E11*$E11+$F11*$F11+$G11*$G11+$H11*$H11+$I11*$I11</f>
+        <f t="shared" si="1"/>
         <v>7.0088936545280003</v>
       </c>
       <c r="K11">
-        <f>SQRT($J11)</f>
+        <f t="shared" si="2"/>
         <v>2.6474315202716765</v>
       </c>
       <c r="L11">
-        <f>B11/$K11</f>
+        <f t="shared" si="3"/>
         <v>0.17369401114964872</v>
       </c>
       <c r="M11">
-        <f>C11/$K11</f>
+        <f t="shared" si="4"/>
         <v>0.39058045206543757</v>
       </c>
       <c r="N11">
-        <f>D11/$K11</f>
+        <f t="shared" si="5"/>
         <v>0.35203894524318396</v>
       </c>
       <c r="O11">
-        <f>E11/$K11</f>
+        <f t="shared" si="6"/>
         <v>0.39834231477752435</v>
       </c>
       <c r="P11">
-        <f>F11/$K11</f>
+        <f t="shared" si="7"/>
         <v>0.38439974450994208</v>
       </c>
       <c r="Q11">
-        <f>G11/$K11</f>
+        <f t="shared" si="8"/>
         <v>0.52715055679959022</v>
       </c>
       <c r="R11">
-        <f>H11/$K11</f>
+        <f t="shared" si="9"/>
         <v>0.25322203610056193</v>
       </c>
       <c r="S11">
-        <f>I11/$K11</f>
+        <f t="shared" si="10"/>
         <v>0.21188914451786639</v>
       </c>
       <c r="T11">
-        <f>(L11-$L$75)^2+(M11-$M$75)^2+(N11-$N$75)^2+(O11-$O$75)^2+(P11-$P$75)^2+(Q11-$Q$75)^2+(R11-$R$75)^2+(S11-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.99993186179680027</v>
       </c>
       <c r="U11">
-        <f>(L11-$L$76)^2+(M11-$M$76)^2+(N11-$N$76)^2+(O11-$O$76)^2+(P11-$P$76)^2+(Q11-$Q$76)^2+(R11-$R$76)^2+(S11-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>1.080965559651957</v>
       </c>
     </row>
@@ -1962,51 +1963,51 @@
         <v>0.56096199999999996</v>
       </c>
       <c r="J12" s="2">
-        <f>$B12*$B12+$C12*$C12+$D12*$D12+$E12*$E12+$F12*$F12+$G12*$G12+$H12*$H12+$I12*$I12</f>
+        <f t="shared" si="1"/>
         <v>7.0088936545280003</v>
       </c>
       <c r="K12">
-        <f>SQRT($J12)</f>
+        <f t="shared" si="2"/>
         <v>2.6474315202716765</v>
       </c>
       <c r="L12">
-        <f>B12/$K12</f>
+        <f t="shared" si="3"/>
         <v>0.17369401114964872</v>
       </c>
       <c r="M12">
-        <f>C12/$K12</f>
+        <f t="shared" si="4"/>
         <v>0.39058045206543757</v>
       </c>
       <c r="N12">
-        <f>D12/$K12</f>
+        <f t="shared" si="5"/>
         <v>0.35203894524318396</v>
       </c>
       <c r="O12">
-        <f>E12/$K12</f>
+        <f t="shared" si="6"/>
         <v>0.39834231477752435</v>
       </c>
       <c r="P12">
-        <f>F12/$K12</f>
+        <f t="shared" si="7"/>
         <v>0.38439974450994208</v>
       </c>
       <c r="Q12">
-        <f>G12/$K12</f>
+        <f t="shared" si="8"/>
         <v>0.52715055679959022</v>
       </c>
       <c r="R12">
-        <f>H12/$K12</f>
+        <f t="shared" si="9"/>
         <v>0.25322203610056193</v>
       </c>
       <c r="S12">
-        <f>I12/$K12</f>
+        <f t="shared" si="10"/>
         <v>0.21188914451786639</v>
       </c>
       <c r="T12">
-        <f>(L12-$L$75)^2+(M12-$M$75)^2+(N12-$N$75)^2+(O12-$O$75)^2+(P12-$P$75)^2+(Q12-$Q$75)^2+(R12-$R$75)^2+(S12-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.99993186179680027</v>
       </c>
       <c r="U12">
-        <f>(L12-$L$76)^2+(M12-$M$76)^2+(N12-$N$76)^2+(O12-$O$76)^2+(P12-$P$76)^2+(Q12-$Q$76)^2+(R12-$R$76)^2+(S12-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>1.080965559651957</v>
       </c>
     </row>
@@ -2039,51 +2040,51 @@
         <v>4472832</v>
       </c>
       <c r="J13" s="2">
-        <f>$B13*$B13+$C13*$C13+$D13*$D13+$E13*$E13+$F13*$F13+$G13*$G13+$H13*$H13+$I13*$I13</f>
+        <f t="shared" si="1"/>
         <v>210791357743104</v>
       </c>
       <c r="K13">
-        <f>SQRT($J13)</f>
+        <f t="shared" si="2"/>
         <v>14518655.50741886</v>
       </c>
       <c r="L13">
-        <f>B13/$K13</f>
+        <f t="shared" si="3"/>
         <v>0.30468937001360435</v>
       </c>
       <c r="M13">
-        <f>C13/$K13</f>
+        <f t="shared" si="4"/>
         <v>0.36562724401632524</v>
       </c>
       <c r="N13">
-        <f>D13/$K13</f>
+        <f t="shared" si="5"/>
         <v>0.33854374445956043</v>
       </c>
       <c r="O13">
-        <f>E13/$K13</f>
+        <f t="shared" si="6"/>
         <v>0.33854374445956043</v>
       </c>
       <c r="P13">
-        <f>F13/$K13</f>
+        <f t="shared" si="7"/>
         <v>0.40286705590687688</v>
       </c>
       <c r="Q13">
-        <f>G13/$K13</f>
+        <f t="shared" si="8"/>
         <v>0.40963793079606808</v>
       </c>
       <c r="R13">
-        <f>H13/$K13</f>
+        <f t="shared" si="9"/>
         <v>0.34531461934875163</v>
       </c>
       <c r="S13">
-        <f>I13/$K13</f>
+        <f t="shared" si="10"/>
         <v>0.30807480745819998</v>
       </c>
       <c r="T13">
-        <f>(L13-$L$75)^2+(M13-$M$75)^2+(N13-$N$75)^2+(O13-$O$75)^2+(P13-$P$75)^2+(Q13-$Q$75)^2+(R13-$R$75)^2+(S13-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.71050177749483645</v>
       </c>
       <c r="U13">
-        <f>(L13-$L$76)^2+(M13-$M$76)^2+(N13-$N$76)^2+(O13-$O$76)^2+(P13-$P$76)^2+(Q13-$Q$76)^2+(R13-$R$76)^2+(S13-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.78596360275321664</v>
       </c>
     </row>
@@ -2116,51 +2117,51 @@
         <v>1.0932120000000001</v>
       </c>
       <c r="J14" s="2">
-        <f>$B14*$B14+$C14*$C14+$D14*$D14+$E14*$E14+$F14*$F14+$G14*$G14+$H14*$H14+$I14*$I14</f>
+        <f t="shared" si="1"/>
         <v>11.991764710368001</v>
       </c>
       <c r="K14">
-        <f>SQRT($J14)</f>
+        <f t="shared" si="2"/>
         <v>3.4629127494593335</v>
       </c>
       <c r="L14">
-        <f>B14/$K14</f>
+        <f t="shared" si="3"/>
         <v>0.28549723066350974</v>
       </c>
       <c r="M14">
-        <f>C14/$K14</f>
+        <f t="shared" si="4"/>
         <v>0.36522981995358317</v>
       </c>
       <c r="N14">
-        <f>D14/$K14</f>
+        <f t="shared" si="5"/>
         <v>0.41962160329534015</v>
       </c>
       <c r="O14">
-        <f>E14/$K14</f>
+        <f t="shared" si="6"/>
         <v>0.38060618195066598</v>
       </c>
       <c r="P14">
-        <f>F14/$K14</f>
+        <f t="shared" si="7"/>
         <v>0.29475215630522678</v>
       </c>
       <c r="Q14">
-        <f>G14/$K14</f>
+        <f t="shared" si="8"/>
         <v>0.40406100333266037</v>
       </c>
       <c r="R14">
-        <f>H14/$K14</f>
+        <f t="shared" si="9"/>
         <v>0.33815665733502237</v>
       </c>
       <c r="S14">
-        <f>I14/$K14</f>
+        <f t="shared" si="10"/>
         <v>0.31569146527606967</v>
       </c>
       <c r="T14">
-        <f>(L14-$L$75)^2+(M14-$M$75)^2+(N14-$N$75)^2+(O14-$O$75)^2+(P14-$P$75)^2+(Q14-$Q$75)^2+(R14-$R$75)^2+(S14-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.67901945359408933</v>
       </c>
       <c r="U14">
-        <f>(L14-$L$76)^2+(M14-$M$76)^2+(N14-$N$76)^2+(O14-$O$76)^2+(P14-$P$76)^2+(Q14-$Q$76)^2+(R14-$R$76)^2+(S14-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.75026238207583995</v>
       </c>
     </row>
@@ -2193,51 +2194,51 @@
         <v>63985</v>
       </c>
       <c r="J15" s="2">
-        <f>$B15*$B15+$C15*$C15+$D15*$D15+$E15*$E15+$F15*$F15+$G15*$G15+$H15*$H15+$I15*$I15</f>
+        <f t="shared" si="1"/>
         <v>37619359522</v>
       </c>
       <c r="K15">
-        <f>SQRT($J15)</f>
+        <f t="shared" si="2"/>
         <v>193957.10742842089</v>
       </c>
       <c r="L15">
-        <f>B15/$K15</f>
+        <f t="shared" si="3"/>
         <v>0.33999269670659721</v>
       </c>
       <c r="M15">
-        <f>C15/$K15</f>
+        <f t="shared" si="4"/>
         <v>0.38444066829320972</v>
       </c>
       <c r="N15">
-        <f>D15/$K15</f>
+        <f t="shared" si="5"/>
         <v>0.32866029425359011</v>
       </c>
       <c r="O15">
-        <f>E15/$K15</f>
+        <f t="shared" si="6"/>
         <v>0.32557713835418239</v>
       </c>
       <c r="P15">
-        <f>F15/$K15</f>
+        <f t="shared" si="7"/>
         <v>0.38474485925987373</v>
       </c>
       <c r="Q15">
-        <f>G15/$K15</f>
+        <f t="shared" si="8"/>
         <v>0.39025123133440126</v>
       </c>
       <c r="R15">
-        <f>H15/$K15</f>
+        <f t="shared" si="9"/>
         <v>0.33680642522526949</v>
       </c>
       <c r="S15">
-        <f>I15/$K15</f>
+        <f t="shared" si="10"/>
         <v>0.329892525457534</v>
       </c>
       <c r="T15">
-        <f>(L15-$L$75)^2+(M15-$M$75)^2+(N15-$N$75)^2+(O15-$O$75)^2+(P15-$P$75)^2+(Q15-$Q$75)^2+(R15-$R$75)^2+(S15-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.64894503406604431</v>
       </c>
       <c r="U15">
-        <f>(L15-$L$76)^2+(M15-$M$76)^2+(N15-$N$76)^2+(O15-$O$76)^2+(P15-$P$76)^2+(Q15-$Q$76)^2+(R15-$R$76)^2+(S15-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.72155342504908215</v>
       </c>
     </row>
@@ -2270,51 +2271,51 @@
         <v>0.24384402999999999</v>
       </c>
       <c r="J16" s="2">
-        <f>$B16*$B16+$C16*$C16+$D16*$D16+$E16*$E16+$F16*$F16+$G16*$G16+$H16*$H16+$I16*$I16</f>
+        <f t="shared" si="1"/>
         <v>0.57996530689843251</v>
       </c>
       <c r="K16">
-        <f>SQRT($J16)</f>
+        <f t="shared" si="2"/>
         <v>0.76155453310871479</v>
       </c>
       <c r="L16">
-        <f>B16/$K16</f>
+        <f t="shared" si="3"/>
         <v>0.29465348867927599</v>
       </c>
       <c r="M16">
-        <f>C16/$K16</f>
+        <f t="shared" si="4"/>
         <v>0.36328104944850481</v>
       </c>
       <c r="N16">
-        <f>D16/$K16</f>
+        <f t="shared" si="5"/>
         <v>0.41984644053632919</v>
       </c>
       <c r="O16">
-        <f>E16/$K16</f>
+        <f t="shared" si="6"/>
         <v>0.37128779057459244</v>
       </c>
       <c r="P16">
-        <f>F16/$K16</f>
+        <f t="shared" si="7"/>
         <v>0.29427070584846537</v>
       </c>
       <c r="Q16">
-        <f>G16/$K16</f>
+        <f t="shared" si="8"/>
         <v>0.39518589531793574</v>
       </c>
       <c r="R16">
-        <f>H16/$K16</f>
+        <f t="shared" si="9"/>
         <v>0.34898450267915382</v>
       </c>
       <c r="S16">
-        <f>I16/$K16</f>
+        <f t="shared" si="10"/>
         <v>0.32019247394485711</v>
       </c>
       <c r="T16">
-        <f>(L16-$L$75)^2+(M16-$M$75)^2+(N16-$N$75)^2+(O16-$O$75)^2+(P16-$P$75)^2+(Q16-$Q$75)^2+(R16-$R$75)^2+(S16-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.66075660227169808</v>
       </c>
       <c r="U16">
-        <f>(L16-$L$76)^2+(M16-$M$76)^2+(N16-$N$76)^2+(O16-$O$76)^2+(P16-$P$76)^2+(Q16-$Q$76)^2+(R16-$R$76)^2+(S16-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.73144599722386894</v>
       </c>
     </row>
@@ -2347,51 +2348,51 @@
         <v>371026</v>
       </c>
       <c r="J17" s="2">
-        <f>$B17*$B17+$C17*$C17+$D17*$D17+$E17*$E17+$F17*$F17+$G17*$G17+$H17*$H17+$I17*$I17</f>
+        <f t="shared" si="1"/>
         <v>16725919522389</v>
       </c>
       <c r="K17">
-        <f>SQRT($J17)</f>
+        <f t="shared" si="2"/>
         <v>4089733.4292578287</v>
       </c>
       <c r="L17">
-        <f>B17/$K17</f>
+        <f t="shared" si="3"/>
         <v>1.2018387225037232E-2</v>
       </c>
       <c r="M17">
-        <f>C17/$K17</f>
+        <f t="shared" si="4"/>
         <v>0.42375646970088704</v>
       </c>
       <c r="N17">
-        <f>D17/$K17</f>
+        <f t="shared" si="5"/>
         <v>0.28008598110705513</v>
       </c>
       <c r="O17">
-        <f>E17/$K17</f>
+        <f t="shared" si="6"/>
         <v>0.37689180154700652</v>
       </c>
       <c r="P17">
-        <f>F17/$K17</f>
+        <f t="shared" si="7"/>
         <v>0.52058771967109974</v>
       </c>
       <c r="Q17">
-        <f>G17/$K17</f>
+        <f t="shared" si="8"/>
         <v>0.51583826586537218</v>
       </c>
       <c r="R17">
-        <f>H17/$K17</f>
+        <f t="shared" si="9"/>
         <v>0.23336533211975066</v>
       </c>
       <c r="S17">
-        <f>I17/$K17</f>
+        <f t="shared" si="10"/>
         <v>9.0721316295505047E-2</v>
       </c>
       <c r="T17">
-        <f>(L17-$L$75)^2+(M17-$M$75)^2+(N17-$N$75)^2+(O17-$O$75)^2+(P17-$P$75)^2+(Q17-$Q$75)^2+(R17-$R$75)^2+(S17-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>1.4003837736568385</v>
       </c>
       <c r="U17">
-        <f>(L17-$L$76)^2+(M17-$M$76)^2+(N17-$N$76)^2+(O17-$O$76)^2+(P17-$P$76)^2+(Q17-$Q$76)^2+(R17-$R$76)^2+(S17-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>1.4976970401218457</v>
       </c>
     </row>
@@ -2424,51 +2425,51 @@
         <v>264748</v>
       </c>
       <c r="J18" s="2">
-        <f>$B18*$B18+$C18*$C18+$D18*$D18+$E18*$E18+$F18*$F18+$G18*$G18+$H18*$H18+$I18*$I18</f>
+        <f t="shared" si="1"/>
         <v>576027382478</v>
       </c>
       <c r="K18">
-        <f>SQRT($J18)</f>
+        <f t="shared" si="2"/>
         <v>758964.6780173633</v>
       </c>
       <c r="L18">
-        <f>B18/$K18</f>
+        <f t="shared" si="3"/>
         <v>0.35192678623429874</v>
       </c>
       <c r="M18">
-        <f>C18/$K18</f>
+        <f t="shared" si="4"/>
         <v>0.36020780402345104</v>
       </c>
       <c r="N18">
-        <f>D18/$K18</f>
+        <f t="shared" si="5"/>
         <v>0.34794504625676209</v>
       </c>
       <c r="O18">
-        <f>E18/$K18</f>
+        <f t="shared" si="6"/>
         <v>0.34404894926352048</v>
       </c>
       <c r="P18">
-        <f>F18/$K18</f>
+        <f t="shared" si="7"/>
         <v>0.36089426548218584</v>
       </c>
       <c r="Q18">
-        <f>G18/$K18</f>
+        <f t="shared" si="8"/>
         <v>0.36604075004613629</v>
       </c>
       <c r="R18">
-        <f>H18/$K18</f>
+        <f t="shared" si="9"/>
         <v>0.34792396490678174</v>
       </c>
       <c r="S18">
-        <f>I18/$K18</f>
+        <f t="shared" si="10"/>
         <v>0.34882782778718879</v>
       </c>
       <c r="T18">
-        <f>(L18-$L$75)^2+(M18-$M$75)^2+(N18-$N$75)^2+(O18-$O$75)^2+(P18-$P$75)^2+(Q18-$Q$75)^2+(R18-$R$75)^2+(S18-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.59840188674927508</v>
       </c>
       <c r="U18">
-        <f>(L18-$L$76)^2+(M18-$M$76)^2+(N18-$N$76)^2+(O18-$O$76)^2+(P18-$P$76)^2+(Q18-$Q$76)^2+(R18-$R$76)^2+(S18-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.66867193962368165</v>
       </c>
     </row>
@@ -2501,51 +2502,51 @@
         <v>1327104</v>
       </c>
       <c r="J19" s="2">
-        <f>$B19*$B19+$C19*$C19+$D19*$D19+$E19*$E19+$F19*$F19+$G19*$G19+$H19*$H19+$I19*$I19</f>
+        <f t="shared" si="1"/>
         <v>16795469611008</v>
       </c>
       <c r="K19">
-        <f>SQRT($J19)</f>
+        <f t="shared" si="2"/>
         <v>4098227.618252554</v>
       </c>
       <c r="L19">
-        <f>B19/$K19</f>
+        <f t="shared" si="3"/>
         <v>0.32382388769461878</v>
       </c>
       <c r="M19">
-        <f>C19/$K19</f>
+        <f t="shared" si="4"/>
         <v>0.32382388769461878</v>
       </c>
       <c r="N19">
-        <f>D19/$K19</f>
+        <f t="shared" si="5"/>
         <v>0.32382388769461878</v>
       </c>
       <c r="O19">
-        <f>E19/$K19</f>
+        <f t="shared" si="6"/>
         <v>0.32382388769461878</v>
       </c>
       <c r="P19">
-        <f>F19/$K19</f>
+        <f t="shared" si="7"/>
         <v>0.32382388769461878</v>
       </c>
       <c r="Q19">
-        <f>G19/$K19</f>
+        <f t="shared" si="8"/>
         <v>0.51571952484698547</v>
       </c>
       <c r="R19">
-        <f>H19/$K19</f>
+        <f t="shared" si="9"/>
         <v>0.32382388769461878</v>
       </c>
       <c r="S19">
-        <f>I19/$K19</f>
+        <f t="shared" si="10"/>
         <v>0.32382388769461878</v>
       </c>
       <c r="T19">
-        <f>(L19-$L$75)^2+(M19-$M$75)^2+(N19-$N$75)^2+(O19-$O$75)^2+(P19-$P$75)^2+(Q19-$Q$75)^2+(R19-$R$75)^2+(S19-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.69565983985589275</v>
       </c>
       <c r="U19">
-        <f>(L19-$L$76)^2+(M19-$M$76)^2+(N19-$N$76)^2+(O19-$O$76)^2+(P19-$P$76)^2+(Q19-$Q$76)^2+(R19-$R$76)^2+(S19-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.75774321908216125</v>
       </c>
     </row>
@@ -2578,51 +2579,51 @@
         <v>1</v>
       </c>
       <c r="J20" s="2">
-        <f>$B20*$B20+$C20*$C20+$D20*$D20+$E20*$E20+$F20*$F20+$G20*$G20+$H20*$H20+$I20*$I20</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K20">
-        <f>SQRT($J20)</f>
+        <f t="shared" si="2"/>
         <v>2.8284271247461903</v>
       </c>
       <c r="L20">
-        <f>B20/$K20</f>
+        <f t="shared" si="3"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="M20">
-        <f>C20/$K20</f>
+        <f t="shared" si="4"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="N20">
-        <f>D20/$K20</f>
+        <f t="shared" si="5"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="O20">
-        <f>E20/$K20</f>
+        <f t="shared" si="6"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="P20">
-        <f>F20/$K20</f>
+        <f t="shared" si="7"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="Q20">
-        <f>G20/$K20</f>
+        <f t="shared" si="8"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="R20">
-        <f>H20/$K20</f>
+        <f t="shared" si="9"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="S20">
-        <f>I20/$K20</f>
+        <f t="shared" si="10"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="T20">
-        <f>(L20-$L$75)^2+(M20-$M$75)^2+(N20-$N$75)^2+(O20-$O$75)^2+(P20-$P$75)^2+(Q20-$Q$75)^2+(R20-$R$75)^2+(S20-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.58642304026535474</v>
       </c>
       <c r="U20">
-        <f>(L20-$L$76)^2+(M20-$M$76)^2+(N20-$N$76)^2+(O20-$O$76)^2+(P20-$P$76)^2+(Q20-$Q$76)^2+(R20-$R$76)^2+(S20-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.65627820194057063</v>
       </c>
     </row>
@@ -2655,51 +2656,51 @@
         <v>1</v>
       </c>
       <c r="J21" s="2">
-        <f>$B21*$B21+$C21*$C21+$D21*$D21+$E21*$E21+$F21*$F21+$G21*$G21+$H21*$H21+$I21*$I21</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K21">
-        <f>SQRT($J21)</f>
+        <f t="shared" si="2"/>
         <v>2.8284271247461903</v>
       </c>
       <c r="L21">
-        <f>B21/$K21</f>
+        <f t="shared" si="3"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="M21">
-        <f>C21/$K21</f>
+        <f t="shared" si="4"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="N21">
-        <f>D21/$K21</f>
+        <f t="shared" si="5"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="O21">
-        <f>E21/$K21</f>
+        <f t="shared" si="6"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="P21">
-        <f>F21/$K21</f>
+        <f t="shared" si="7"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="Q21">
-        <f>G21/$K21</f>
+        <f t="shared" si="8"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="R21">
-        <f>H21/$K21</f>
+        <f t="shared" si="9"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="S21">
-        <f>I21/$K21</f>
+        <f t="shared" si="10"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="T21">
-        <f>(L21-$L$75)^2+(M21-$M$75)^2+(N21-$N$75)^2+(O21-$O$75)^2+(P21-$P$75)^2+(Q21-$Q$75)^2+(R21-$R$75)^2+(S21-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.58642304026535474</v>
       </c>
       <c r="U21">
-        <f>(L21-$L$76)^2+(M21-$M$76)^2+(N21-$N$76)^2+(O21-$O$76)^2+(P21-$P$76)^2+(Q21-$Q$76)^2+(R21-$R$76)^2+(S21-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.65627820194057063</v>
       </c>
     </row>
@@ -2732,51 +2733,51 @@
         <v>1</v>
       </c>
       <c r="J22" s="2">
-        <f>$B22*$B22+$C22*$C22+$D22*$D22+$E22*$E22+$F22*$F22+$G22*$G22+$H22*$H22+$I22*$I22</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K22">
-        <f>SQRT($J22)</f>
+        <f t="shared" si="2"/>
         <v>2.8284271247461903</v>
       </c>
       <c r="L22">
-        <f>B22/$K22</f>
+        <f t="shared" si="3"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="M22">
-        <f>C22/$K22</f>
+        <f t="shared" si="4"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="N22">
-        <f>D22/$K22</f>
+        <f t="shared" si="5"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="O22">
-        <f>E22/$K22</f>
+        <f t="shared" si="6"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="P22">
-        <f>F22/$K22</f>
+        <f t="shared" si="7"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="Q22">
-        <f>G22/$K22</f>
+        <f t="shared" si="8"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="R22">
-        <f>H22/$K22</f>
+        <f t="shared" si="9"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="S22">
-        <f>I22/$K22</f>
+        <f t="shared" si="10"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="T22">
-        <f>(L22-$L$75)^2+(M22-$M$75)^2+(N22-$N$75)^2+(O22-$O$75)^2+(P22-$P$75)^2+(Q22-$Q$75)^2+(R22-$R$75)^2+(S22-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.58642304026535474</v>
       </c>
       <c r="U22">
-        <f>(L22-$L$76)^2+(M22-$M$76)^2+(N22-$N$76)^2+(O22-$O$76)^2+(P22-$P$76)^2+(Q22-$Q$76)^2+(R22-$R$76)^2+(S22-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.65627820194057063</v>
       </c>
     </row>
@@ -2809,51 +2810,51 @@
         <v>7680</v>
       </c>
       <c r="J23" s="2">
-        <f>$B23*$B23+$C23*$C23+$D23*$D23+$E23*$E23+$F23*$F23+$G23*$G23+$H23*$H23+$I23*$I23</f>
+        <f t="shared" si="1"/>
         <v>471859200</v>
       </c>
       <c r="K23">
-        <f>SQRT($J23)</f>
+        <f t="shared" si="2"/>
         <v>21722.320318050741</v>
       </c>
       <c r="L23">
-        <f>B23/$K23</f>
+        <f t="shared" si="3"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="M23">
-        <f>C23/$K23</f>
+        <f t="shared" si="4"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="N23">
-        <f>D23/$K23</f>
+        <f t="shared" si="5"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="O23">
-        <f>E23/$K23</f>
+        <f t="shared" si="6"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="P23">
-        <f>F23/$K23</f>
+        <f t="shared" si="7"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="Q23">
-        <f>G23/$K23</f>
+        <f t="shared" si="8"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="R23">
-        <f>H23/$K23</f>
+        <f t="shared" si="9"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="S23">
-        <f>I23/$K23</f>
+        <f t="shared" si="10"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="T23">
-        <f>(L23-$L$75)^2+(M23-$M$75)^2+(N23-$N$75)^2+(O23-$O$75)^2+(P23-$P$75)^2+(Q23-$Q$75)^2+(R23-$R$75)^2+(S23-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.58642304026535474</v>
       </c>
       <c r="U23">
-        <f>(L23-$L$76)^2+(M23-$M$76)^2+(N23-$N$76)^2+(O23-$O$76)^2+(P23-$P$76)^2+(Q23-$Q$76)^2+(R23-$R$76)^2+(S23-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.65627820194057063</v>
       </c>
     </row>
@@ -2886,51 +2887,51 @@
         <v>125952</v>
       </c>
       <c r="J24" s="2">
-        <f>$B24*$B24+$C24*$C24+$D24*$D24+$E24*$E24+$F24*$F24+$G24*$G24+$H24*$H24+$I24*$I24</f>
+        <f t="shared" si="1"/>
         <v>126911250432</v>
       </c>
       <c r="K24">
-        <f>SQRT($J24)</f>
+        <f t="shared" si="2"/>
         <v>356246.05321603216</v>
       </c>
       <c r="L24">
-        <f>B24/$K24</f>
+        <f t="shared" si="3"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="M24">
-        <f>C24/$K24</f>
+        <f t="shared" si="4"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="N24">
-        <f>D24/$K24</f>
+        <f t="shared" si="5"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="O24">
-        <f>E24/$K24</f>
+        <f t="shared" si="6"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="P24">
-        <f>F24/$K24</f>
+        <f t="shared" si="7"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="Q24">
-        <f>G24/$K24</f>
+        <f t="shared" si="8"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="R24">
-        <f>H24/$K24</f>
+        <f t="shared" si="9"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="S24">
-        <f>I24/$K24</f>
+        <f t="shared" si="10"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="T24">
-        <f>(L24-$L$75)^2+(M24-$M$75)^2+(N24-$N$75)^2+(O24-$O$75)^2+(P24-$P$75)^2+(Q24-$Q$75)^2+(R24-$R$75)^2+(S24-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.58642304026535474</v>
       </c>
       <c r="U24">
-        <f>(L24-$L$76)^2+(M24-$M$76)^2+(N24-$N$76)^2+(O24-$O$76)^2+(P24-$P$76)^2+(Q24-$Q$76)^2+(R24-$R$76)^2+(S24-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.65627820194057063</v>
       </c>
     </row>
@@ -2963,51 +2964,51 @@
         <v>22609920</v>
       </c>
       <c r="J25" s="2">
-        <f>$B25*$B25+$C25*$C25+$D25*$D25+$E25*$E25+$F25*$F25+$G25*$G25+$H25*$H25+$I25*$I25</f>
+        <f t="shared" si="1"/>
         <v>4089667859251200</v>
       </c>
       <c r="K25">
-        <f>SQRT($J25)</f>
+        <f t="shared" si="2"/>
         <v>63950511.016341381</v>
       </c>
       <c r="L25">
-        <f>B25/$K25</f>
+        <f t="shared" si="3"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="M25">
-        <f>C25/$K25</f>
+        <f t="shared" si="4"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="N25">
-        <f>D25/$K25</f>
+        <f t="shared" si="5"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="O25">
-        <f>E25/$K25</f>
+        <f t="shared" si="6"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="P25">
-        <f>F25/$K25</f>
+        <f t="shared" si="7"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="Q25">
-        <f>G25/$K25</f>
+        <f t="shared" si="8"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="R25">
-        <f>H25/$K25</f>
+        <f t="shared" si="9"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="S25">
-        <f>I25/$K25</f>
+        <f t="shared" si="10"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="T25">
-        <f>(L25-$L$75)^2+(M25-$M$75)^2+(N25-$N$75)^2+(O25-$O$75)^2+(P25-$P$75)^2+(Q25-$Q$75)^2+(R25-$R$75)^2+(S25-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.58642304026535474</v>
       </c>
       <c r="U25">
-        <f>(L25-$L$76)^2+(M25-$M$76)^2+(N25-$N$76)^2+(O25-$O$76)^2+(P25-$P$76)^2+(Q25-$Q$76)^2+(R25-$R$76)^2+(S25-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.65627820194057063</v>
       </c>
     </row>
@@ -3040,51 +3041,51 @@
         <v>1327104</v>
       </c>
       <c r="J26" s="2">
-        <f>$B26*$B26+$C26*$C26+$D26*$D26+$E26*$E26+$F26*$F26+$G26*$G26+$H26*$H26+$I26*$I26</f>
+        <f t="shared" si="1"/>
         <v>14089640214528</v>
       </c>
       <c r="K26">
-        <f>SQRT($J26)</f>
+        <f t="shared" si="2"/>
         <v>3753616.9509591679</v>
       </c>
       <c r="L26">
-        <f>B26/$K26</f>
+        <f t="shared" si="3"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="M26">
-        <f>C26/$K26</f>
+        <f t="shared" si="4"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="N26">
-        <f>D26/$K26</f>
+        <f t="shared" si="5"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="O26">
-        <f>E26/$K26</f>
+        <f t="shared" si="6"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="P26">
-        <f>F26/$K26</f>
+        <f t="shared" si="7"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="Q26">
-        <f>G26/$K26</f>
+        <f t="shared" si="8"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="R26">
-        <f>H26/$K26</f>
+        <f t="shared" si="9"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="S26">
-        <f>I26/$K26</f>
+        <f t="shared" si="10"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="T26">
-        <f>(L26-$L$75)^2+(M26-$M$75)^2+(N26-$N$75)^2+(O26-$O$75)^2+(P26-$P$75)^2+(Q26-$Q$75)^2+(R26-$R$75)^2+(S26-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.58642304026535474</v>
       </c>
       <c r="U26">
-        <f>(L26-$L$76)^2+(M26-$M$76)^2+(N26-$N$76)^2+(O26-$O$76)^2+(P26-$P$76)^2+(Q26-$Q$76)^2+(R26-$R$76)^2+(S26-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.65627820194057063</v>
       </c>
     </row>
@@ -3117,51 +3118,51 @@
         <v>32391168</v>
       </c>
       <c r="J27" s="2">
-        <f>$B27*$B27+$C27*$C27+$D27*$D27+$E27*$E27+$F27*$F27+$G27*$G27+$H27*$H27+$I27*$I27</f>
+        <f t="shared" si="1"/>
         <v>8393502115233792</v>
       </c>
       <c r="K27">
-        <f>SQRT($J27)</f>
+        <f t="shared" si="2"/>
         <v>91616058.173410803</v>
       </c>
       <c r="L27">
-        <f>B27/$K27</f>
+        <f t="shared" si="3"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="M27">
-        <f>C27/$K27</f>
+        <f t="shared" si="4"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="N27">
-        <f>D27/$K27</f>
+        <f t="shared" si="5"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="O27">
-        <f>E27/$K27</f>
+        <f t="shared" si="6"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="P27">
-        <f>F27/$K27</f>
+        <f t="shared" si="7"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="Q27">
-        <f>G27/$K27</f>
+        <f t="shared" si="8"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="R27">
-        <f>H27/$K27</f>
+        <f t="shared" si="9"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="S27">
-        <f>I27/$K27</f>
+        <f t="shared" si="10"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="T27">
-        <f>(L27-$L$75)^2+(M27-$M$75)^2+(N27-$N$75)^2+(O27-$O$75)^2+(P27-$P$75)^2+(Q27-$Q$75)^2+(R27-$R$75)^2+(S27-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.58642304026535474</v>
       </c>
       <c r="U27">
-        <f>(L27-$L$76)^2+(M27-$M$76)^2+(N27-$N$76)^2+(O27-$O$76)^2+(P27-$P$76)^2+(Q27-$Q$76)^2+(R27-$R$76)^2+(S27-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.65627820194057063</v>
       </c>
     </row>
@@ -3194,51 +3195,51 @@
         <v>52346880</v>
       </c>
       <c r="J28" s="2">
-        <f>$B28*$B28+$C28*$C28+$D28*$D28+$E28*$E28+$F28*$F28+$G28*$G28+$H28*$H28+$I28*$I28</f>
+        <f t="shared" si="1"/>
         <v>2.19215667658752E+16</v>
       </c>
       <c r="K28">
-        <f>SQRT($J28)</f>
+        <f t="shared" si="2"/>
         <v>148059335.28783384</v>
       </c>
       <c r="L28">
-        <f>B28/$K28</f>
+        <f t="shared" si="3"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="M28">
-        <f>C28/$K28</f>
+        <f t="shared" si="4"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="N28">
-        <f>D28/$K28</f>
+        <f t="shared" si="5"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="O28">
-        <f>E28/$K28</f>
+        <f t="shared" si="6"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="P28">
-        <f>F28/$K28</f>
+        <f t="shared" si="7"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="Q28">
-        <f>G28/$K28</f>
+        <f t="shared" si="8"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="R28">
-        <f>H28/$K28</f>
+        <f t="shared" si="9"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="S28">
-        <f>I28/$K28</f>
+        <f t="shared" si="10"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="T28">
-        <f>(L28-$L$75)^2+(M28-$M$75)^2+(N28-$N$75)^2+(O28-$O$75)^2+(P28-$P$75)^2+(Q28-$Q$75)^2+(R28-$R$75)^2+(S28-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.58642304026535497</v>
       </c>
       <c r="U28">
-        <f>(L28-$L$76)^2+(M28-$M$76)^2+(N28-$N$76)^2+(O28-$O$76)^2+(P28-$P$76)^2+(Q28-$Q$76)^2+(R28-$R$76)^2+(S28-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.65627820194057063</v>
       </c>
     </row>
@@ -3271,51 +3272,51 @@
         <v>4325376</v>
       </c>
       <c r="J29" s="2">
-        <f>$B29*$B29+$C29*$C29+$D29*$D29+$E29*$E29+$F29*$F29+$G29*$G29+$H29*$H29+$I29*$I29</f>
+        <f t="shared" si="1"/>
         <v>149671020331008</v>
       </c>
       <c r="K29">
-        <f>SQRT($J29)</f>
+        <f t="shared" si="2"/>
         <v>12234010.803126177</v>
       </c>
       <c r="L29">
-        <f>B29/$K29</f>
+        <f t="shared" si="3"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="M29">
-        <f>C29/$K29</f>
+        <f t="shared" si="4"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="N29">
-        <f>D29/$K29</f>
+        <f t="shared" si="5"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="O29">
-        <f>E29/$K29</f>
+        <f t="shared" si="6"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="P29">
-        <f>F29/$K29</f>
+        <f t="shared" si="7"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="Q29">
-        <f>G29/$K29</f>
+        <f t="shared" si="8"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="R29">
-        <f>H29/$K29</f>
+        <f t="shared" si="9"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="S29">
-        <f>I29/$K29</f>
+        <f t="shared" si="10"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="T29">
-        <f>(L29-$L$75)^2+(M29-$M$75)^2+(N29-$N$75)^2+(O29-$O$75)^2+(P29-$P$75)^2+(Q29-$Q$75)^2+(R29-$R$75)^2+(S29-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.58642304026535497</v>
       </c>
       <c r="U29">
-        <f>(L29-$L$76)^2+(M29-$M$76)^2+(N29-$N$76)^2+(O29-$O$76)^2+(P29-$P$76)^2+(Q29-$Q$76)^2+(R29-$R$76)^2+(S29-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.65627820194057063</v>
       </c>
     </row>
@@ -3348,51 +3349,51 @@
         <v>2801664</v>
       </c>
       <c r="J30" s="2">
-        <f>$B30*$B30+$C30*$C30+$D30*$D30+$E30*$E30+$F30*$F30+$G30*$G30+$H30*$H30+$I30*$I30</f>
+        <f t="shared" si="1"/>
         <v>62794569351168</v>
       </c>
       <c r="K30">
-        <f>SQRT($J30)</f>
+        <f t="shared" si="2"/>
         <v>7924302.4520249097</v>
       </c>
       <c r="L30">
-        <f>B30/$K30</f>
+        <f t="shared" si="3"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="M30">
-        <f>C30/$K30</f>
+        <f t="shared" si="4"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="N30">
-        <f>D30/$K30</f>
+        <f t="shared" si="5"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="O30">
-        <f>E30/$K30</f>
+        <f t="shared" si="6"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="P30">
-        <f>F30/$K30</f>
+        <f t="shared" si="7"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="Q30">
-        <f>G30/$K30</f>
+        <f t="shared" si="8"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="R30">
-        <f>H30/$K30</f>
+        <f t="shared" si="9"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="S30">
-        <f>I30/$K30</f>
+        <f t="shared" si="10"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="T30">
-        <f>(L30-$L$75)^2+(M30-$M$75)^2+(N30-$N$75)^2+(O30-$O$75)^2+(P30-$P$75)^2+(Q30-$Q$75)^2+(R30-$R$75)^2+(S30-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.58642304026535497</v>
       </c>
       <c r="U30">
-        <f>(L30-$L$76)^2+(M30-$M$76)^2+(N30-$N$76)^2+(O30-$O$76)^2+(P30-$P$76)^2+(Q30-$Q$76)^2+(R30-$R$76)^2+(S30-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.65627820194057063</v>
       </c>
     </row>
@@ -3425,51 +3426,51 @@
         <v>2119048</v>
       </c>
       <c r="J31" s="2">
-        <f>$B31*$B31+$C31*$C31+$D31*$D31+$E31*$E31+$F31*$F31+$G31*$G31+$H31*$H31+$I31*$I31</f>
+        <f t="shared" si="1"/>
         <v>36050743482620</v>
       </c>
       <c r="K31">
-        <f>SQRT($J31)</f>
+        <f t="shared" si="2"/>
         <v>6004227.1344961626</v>
       </c>
       <c r="L31">
-        <f>B31/$K31</f>
+        <f t="shared" si="3"/>
         <v>0.35570623032055199</v>
       </c>
       <c r="M31">
-        <f>C31/$K31</f>
+        <f t="shared" si="4"/>
         <v>0.35331341611179945</v>
       </c>
       <c r="N31">
-        <f>D31/$K31</f>
+        <f t="shared" si="5"/>
         <v>0.35269451880549163</v>
       </c>
       <c r="O31">
-        <f>E31/$K31</f>
+        <f t="shared" si="6"/>
         <v>0.35422660608232848</v>
       </c>
       <c r="P31">
-        <f>F31/$K31</f>
+        <f t="shared" si="7"/>
         <v>0.35473208329563422</v>
       </c>
       <c r="Q31">
-        <f>G31/$K31</f>
+        <f t="shared" si="8"/>
         <v>0.35195520633436667</v>
       </c>
       <c r="R31">
-        <f>H31/$K31</f>
+        <f t="shared" si="9"/>
         <v>0.35285790369717301</v>
       </c>
       <c r="S31">
-        <f>I31/$K31</f>
+        <f t="shared" si="10"/>
         <v>0.35292602237270582</v>
       </c>
       <c r="T31">
-        <f>(L31-$L$75)^2+(M31-$M$75)^2+(N31-$N$75)^2+(O31-$O$75)^2+(P31-$P$75)^2+(Q31-$Q$75)^2+(R31-$R$75)^2+(S31-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.585054407352818</v>
       </c>
       <c r="U31">
-        <f>(L31-$L$76)^2+(M31-$M$76)^2+(N31-$N$76)^2+(O31-$O$76)^2+(P31-$P$76)^2+(Q31-$Q$76)^2+(R31-$R$76)^2+(S31-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.65498921282099309</v>
       </c>
     </row>
@@ -3502,128 +3503,128 @@
         <v>30720</v>
       </c>
       <c r="J32" s="2">
-        <f>$B32*$B32+$C32*$C32+$D32*$D32+$E32*$E32+$F32*$F32+$G32*$G32+$H32*$H32+$I32*$I32</f>
+        <f t="shared" si="1"/>
         <v>7569758736</v>
       </c>
       <c r="K32">
-        <f>SQRT($J32)</f>
+        <f t="shared" si="2"/>
         <v>87004.360442451391</v>
       </c>
       <c r="L32">
-        <f>B32/$K32</f>
+        <f t="shared" si="3"/>
         <v>0.35308575160804262</v>
       </c>
       <c r="M32">
-        <f>C32/$K32</f>
+        <f t="shared" si="4"/>
         <v>0.35308575160804262</v>
       </c>
       <c r="N32">
-        <f>D32/$K32</f>
+        <f t="shared" si="5"/>
         <v>0.35308575160804262</v>
       </c>
       <c r="O32">
-        <f>E32/$K32</f>
+        <f t="shared" si="6"/>
         <v>0.35308575160804262</v>
       </c>
       <c r="P32">
-        <f>F32/$K32</f>
+        <f t="shared" si="7"/>
         <v>0.35308575160804262</v>
       </c>
       <c r="Q32">
-        <f>G32/$K32</f>
+        <f t="shared" si="8"/>
         <v>0.35308575160804262</v>
       </c>
       <c r="R32">
-        <f>H32/$K32</f>
+        <f t="shared" si="9"/>
         <v>0.35680970289453368</v>
       </c>
       <c r="S32">
-        <f>I32/$K32</f>
+        <f t="shared" si="10"/>
         <v>0.35308575160804262</v>
       </c>
       <c r="T32">
-        <f>(L32-$L$75)^2+(M32-$M$75)^2+(N32-$N$75)^2+(O32-$O$75)^2+(P32-$P$75)^2+(Q32-$Q$75)^2+(R32-$R$75)^2+(S32-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.58751824750614445</v>
       </c>
       <c r="U32">
-        <f>(L32-$L$76)^2+(M32-$M$76)^2+(N32-$N$76)^2+(O32-$O$76)^2+(P32-$P$76)^2+(Q32-$Q$76)^2+(R32-$R$76)^2+(S32-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.65732156823364019</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>1826304</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>1787904</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>1800192</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>1775616</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>1672704</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>2284032</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>1731072</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>1864704</v>
       </c>
       <c r="J33" s="2">
-        <f>$B33*$B33+$C33*$C33+$D33*$D33+$E33*$E33+$F33*$F33+$G33*$G33+$H33*$H33+$I33*$I33</f>
+        <f t="shared" si="1"/>
         <v>27413962555392</v>
       </c>
       <c r="K33">
-        <f>SQRT($J33)</f>
+        <f t="shared" si="2"/>
         <v>5235834.4660036759</v>
       </c>
       <c r="L33">
-        <f>B33/$K33</f>
+        <f t="shared" si="3"/>
         <v>0.34880858282633065</v>
       </c>
       <c r="M33">
-        <f>C33/$K33</f>
+        <f t="shared" si="4"/>
         <v>0.34147450833460796</v>
       </c>
       <c r="N33">
-        <f>D33/$K33</f>
+        <f t="shared" si="5"/>
         <v>0.34382141217195922</v>
       </c>
       <c r="O33">
-        <f>E33/$K33</f>
+        <f t="shared" si="6"/>
         <v>0.33912760449725671</v>
       </c>
       <c r="P33">
-        <f>F33/$K33</f>
+        <f t="shared" si="7"/>
         <v>0.31947228485943996</v>
       </c>
       <c r="Q33">
-        <f>G33/$K33</f>
+        <f t="shared" si="8"/>
         <v>0.43623075076766499</v>
       </c>
       <c r="R33">
-        <f>H33/$K33</f>
+        <f t="shared" si="9"/>
         <v>0.33062007808685839</v>
       </c>
       <c r="S33">
-        <f>I33/$K33</f>
+        <f t="shared" si="10"/>
         <v>0.35614265731805334</v>
       </c>
       <c r="T33">
-        <f>(L33-$L$75)^2+(M33-$M$75)^2+(N33-$N$75)^2+(O33-$O$75)^2+(P33-$P$75)^2+(Q33-$Q$75)^2+(R33-$R$75)^2+(S33-$S$75)^2</f>
+        <f t="shared" si="11"/>
         <v>0.60603600226270948</v>
       </c>
       <c r="U33">
-        <f>(L33-$L$76)^2+(M33-$M$76)^2+(N33-$N$76)^2+(O33-$O$76)^2+(P33-$P$76)^2+(Q33-$Q$76)^2+(R33-$R$76)^2+(S33-$S$76)^2</f>
+        <f t="shared" si="12"/>
         <v>0.66976521114379217</v>
       </c>
     </row>
@@ -3656,51 +3657,51 @@
         <v>1214</v>
       </c>
       <c r="J34" s="2">
-        <f>$B34*$B34+$C34*$C34+$D34*$D34+$E34*$E34+$F34*$F34+$G34*$G34+$H34*$H34+$I34*$I34</f>
+        <f t="shared" ref="J34:J65" si="13">$B34*$B34+$C34*$C34+$D34*$D34+$E34*$E34+$F34*$F34+$G34*$G34+$H34*$H34+$I34*$I34</f>
         <v>11619552</v>
       </c>
       <c r="K34">
-        <f>SQRT($J34)</f>
+        <f t="shared" ref="K34:K65" si="14">SQRT($J34)</f>
         <v>3408.7463971378102</v>
       </c>
       <c r="L34">
-        <f>B34/$K34</f>
+        <f t="shared" ref="L34:L65" si="15">B34/$K34</f>
         <v>0.34880858282633065</v>
       </c>
       <c r="M34">
-        <f>C34/$K34</f>
+        <f t="shared" ref="M34:M65" si="16">C34/$K34</f>
         <v>0.34147450833460796</v>
       </c>
       <c r="N34">
-        <f>D34/$K34</f>
+        <f t="shared" ref="N34:N65" si="17">D34/$K34</f>
         <v>0.34382141217195922</v>
       </c>
       <c r="O34">
-        <f>E34/$K34</f>
+        <f t="shared" ref="O34:O65" si="18">E34/$K34</f>
         <v>0.33912760449725671</v>
       </c>
       <c r="P34">
-        <f>F34/$K34</f>
+        <f t="shared" ref="P34:P65" si="19">F34/$K34</f>
         <v>0.3194722848594399</v>
       </c>
       <c r="Q34">
-        <f>G34/$K34</f>
+        <f t="shared" ref="Q34:Q65" si="20">G34/$K34</f>
         <v>0.43623075076766499</v>
       </c>
       <c r="R34">
-        <f>H34/$K34</f>
+        <f t="shared" ref="R34:R65" si="21">H34/$K34</f>
         <v>0.33062007808685839</v>
       </c>
       <c r="S34">
-        <f>I34/$K34</f>
+        <f t="shared" ref="S34:S65" si="22">I34/$K34</f>
         <v>0.35614265731805334</v>
       </c>
       <c r="T34">
-        <f>(L34-$L$75)^2+(M34-$M$75)^2+(N34-$N$75)^2+(O34-$O$75)^2+(P34-$P$75)^2+(Q34-$Q$75)^2+(R34-$R$75)^2+(S34-$S$75)^2</f>
+        <f t="shared" ref="T34:T65" si="23">(L34-$L$75)^2+(M34-$M$75)^2+(N34-$N$75)^2+(O34-$O$75)^2+(P34-$P$75)^2+(Q34-$Q$75)^2+(R34-$R$75)^2+(S34-$S$75)^2</f>
         <v>0.60603600226270948</v>
       </c>
       <c r="U34">
-        <f>(L34-$L$76)^2+(M34-$M$76)^2+(N34-$N$76)^2+(O34-$O$76)^2+(P34-$P$76)^2+(Q34-$Q$76)^2+(R34-$R$76)^2+(S34-$S$76)^2</f>
+        <f t="shared" ref="U34:U65" si="24">(L34-$L$76)^2+(M34-$M$76)^2+(N34-$N$76)^2+(O34-$O$76)^2+(P34-$P$76)^2+(Q34-$Q$76)^2+(R34-$R$76)^2+(S34-$S$76)^2</f>
         <v>0.66976521114379217</v>
       </c>
     </row>
@@ -3733,51 +3734,51 @@
         <v>0.90867598999999999</v>
       </c>
       <c r="J35" s="2">
-        <f>$B35*$B35+$C35*$C35+$D35*$D35+$E35*$E35+$F35*$F35+$G35*$G35+$H35*$H35+$I35*$I35</f>
+        <f t="shared" si="13"/>
         <v>6.617608493276216</v>
       </c>
       <c r="K35">
-        <f>SQRT($J35)</f>
+        <f t="shared" si="14"/>
         <v>2.5724712813316724</v>
       </c>
       <c r="L35">
-        <f>B35/$K35</f>
+        <f t="shared" si="15"/>
         <v>0.35633161258285578</v>
       </c>
       <c r="M35">
-        <f>C35/$K35</f>
+        <f t="shared" si="16"/>
         <v>0.35282544321744658</v>
       </c>
       <c r="N35">
-        <f>D35/$K35</f>
+        <f t="shared" si="17"/>
         <v>0.36169234103882564</v>
       </c>
       <c r="O35">
-        <f>E35/$K35</f>
+        <f t="shared" si="18"/>
         <v>0.33605569720976008</v>
       </c>
       <c r="P35">
-        <f>F35/$K35</f>
+        <f t="shared" si="19"/>
         <v>0.36414793307821663</v>
       </c>
       <c r="Q35">
-        <f>G35/$K35</f>
+        <f t="shared" si="20"/>
         <v>0.35021723139844946</v>
       </c>
       <c r="R35">
-        <f>H35/$K35</f>
+        <f t="shared" si="21"/>
         <v>0.35321298107150723</v>
       </c>
       <c r="S35">
-        <f>I35/$K35</f>
+        <f t="shared" si="22"/>
         <v>0.35323076163929512</v>
       </c>
       <c r="T35">
-        <f>(L35-$L$75)^2+(M35-$M$75)^2+(N35-$N$75)^2+(O35-$O$75)^2+(P35-$P$75)^2+(Q35-$Q$75)^2+(R35-$R$75)^2+(S35-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.57764008172734471</v>
       </c>
       <c r="U35">
-        <f>(L35-$L$76)^2+(M35-$M$76)^2+(N35-$N$76)^2+(O35-$O$76)^2+(P35-$P$76)^2+(Q35-$Q$76)^2+(R35-$R$76)^2+(S35-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.64830560709085239</v>
       </c>
     </row>
@@ -3810,51 +3811,51 @@
         <v>0.90867598999999999</v>
       </c>
       <c r="J36" s="2">
-        <f>$B36*$B36+$C36*$C36+$D36*$D36+$E36*$E36+$F36*$F36+$G36*$G36+$H36*$H36+$I36*$I36</f>
+        <f t="shared" si="13"/>
         <v>6.617608493276216</v>
       </c>
       <c r="K36">
-        <f>SQRT($J36)</f>
+        <f t="shared" si="14"/>
         <v>2.5724712813316724</v>
       </c>
       <c r="L36">
-        <f>B36/$K36</f>
+        <f t="shared" si="15"/>
         <v>0.35633161258285578</v>
       </c>
       <c r="M36">
-        <f>C36/$K36</f>
+        <f t="shared" si="16"/>
         <v>0.35282544321744658</v>
       </c>
       <c r="N36">
-        <f>D36/$K36</f>
+        <f t="shared" si="17"/>
         <v>0.36169234103882564</v>
       </c>
       <c r="O36">
-        <f>E36/$K36</f>
+        <f t="shared" si="18"/>
         <v>0.33605569720976008</v>
       </c>
       <c r="P36">
-        <f>F36/$K36</f>
+        <f t="shared" si="19"/>
         <v>0.36414793307821663</v>
       </c>
       <c r="Q36">
-        <f>G36/$K36</f>
+        <f t="shared" si="20"/>
         <v>0.35021723139844946</v>
       </c>
       <c r="R36">
-        <f>H36/$K36</f>
+        <f t="shared" si="21"/>
         <v>0.35321298107150723</v>
       </c>
       <c r="S36">
-        <f>I36/$K36</f>
+        <f t="shared" si="22"/>
         <v>0.35323076163929512</v>
       </c>
       <c r="T36">
-        <f>(L36-$L$75)^2+(M36-$M$75)^2+(N36-$N$75)^2+(O36-$O$75)^2+(P36-$P$75)^2+(Q36-$Q$75)^2+(R36-$R$75)^2+(S36-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.57764008172734471</v>
       </c>
       <c r="U36">
-        <f>(L36-$L$76)^2+(M36-$M$76)^2+(N36-$N$76)^2+(O36-$O$76)^2+(P36-$P$76)^2+(Q36-$Q$76)^2+(R36-$R$76)^2+(S36-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.64830560709085239</v>
       </c>
     </row>
@@ -3887,51 +3888,51 @@
         <v>31339</v>
       </c>
       <c r="J37" s="2">
-        <f>$B37*$B37+$C37*$C37+$D37*$D37+$E37*$E37+$F37*$F37+$G37*$G37+$H37*$H37+$I37*$I37</f>
+        <f t="shared" si="13"/>
         <v>7620235523</v>
       </c>
       <c r="K37">
-        <f>SQRT($J37)</f>
+        <f t="shared" si="14"/>
         <v>87293.960403913399</v>
       </c>
       <c r="L37">
-        <f>B37/$K37</f>
+        <f t="shared" si="15"/>
         <v>0.35301411297428675</v>
       </c>
       <c r="M37">
-        <f>C37/$K37</f>
+        <f t="shared" si="16"/>
         <v>0.35208621372873516</v>
       </c>
       <c r="N37">
-        <f>D37/$K37</f>
+        <f t="shared" si="17"/>
         <v>0.35578635516470009</v>
       </c>
       <c r="O37">
-        <f>E37/$K37</f>
+        <f t="shared" si="18"/>
         <v>0.35210912482121792</v>
       </c>
       <c r="P37">
-        <f>F37/$K37</f>
+        <f t="shared" si="19"/>
         <v>0.35218931364490758</v>
       </c>
       <c r="Q37">
-        <f>G37/$K37</f>
+        <f t="shared" si="20"/>
         <v>0.35207475818249384</v>
       </c>
       <c r="R37">
-        <f>H37/$K37</f>
+        <f t="shared" si="21"/>
         <v>0.35209766927497654</v>
       </c>
       <c r="S37">
-        <f>I37/$K37</f>
+        <f t="shared" si="22"/>
         <v>0.35900536365852714</v>
       </c>
       <c r="T37">
-        <f>(L37-$L$75)^2+(M37-$M$75)^2+(N37-$N$75)^2+(O37-$O$75)^2+(P37-$P$75)^2+(Q37-$Q$75)^2+(R37-$R$75)^2+(S37-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.57943281781157252</v>
       </c>
       <c r="U37">
-        <f>(L37-$L$76)^2+(M37-$M$76)^2+(N37-$N$76)^2+(O37-$O$76)^2+(P37-$P$76)^2+(Q37-$Q$76)^2+(R37-$R$76)^2+(S37-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.64895477724021289</v>
       </c>
     </row>
@@ -3964,51 +3965,51 @@
         <v>38628</v>
       </c>
       <c r="J38" s="2">
-        <f>$B38*$B38+$C38*$C38+$D38*$D38+$E38*$E38+$F38*$F38+$G38*$G38+$H38*$H38+$I38*$I38</f>
+        <f t="shared" si="13"/>
         <v>11913492257</v>
       </c>
       <c r="K38">
-        <f>SQRT($J38)</f>
+        <f t="shared" si="14"/>
         <v>109148.94528578826</v>
       </c>
       <c r="L38">
-        <f>B38/$K38</f>
+        <f t="shared" si="15"/>
         <v>0.3593529914311232</v>
       </c>
       <c r="M38">
-        <f>C38/$K38</f>
+        <f t="shared" si="16"/>
         <v>0.35700757252368703</v>
       </c>
       <c r="N38">
-        <f>D38/$K38</f>
+        <f t="shared" si="17"/>
         <v>0.35020952240916514</v>
       </c>
       <c r="O38">
-        <f>E38/$K38</f>
+        <f t="shared" si="18"/>
         <v>0.3566136154415786</v>
       </c>
       <c r="P38">
-        <f>F38/$K38</f>
+        <f t="shared" si="19"/>
         <v>0.35015455165352211</v>
       </c>
       <c r="Q38">
-        <f>G38/$K38</f>
+        <f t="shared" si="20"/>
         <v>0.35050269977259463</v>
       </c>
       <c r="R38">
-        <f>H38/$K38</f>
+        <f t="shared" si="21"/>
         <v>0.35054850873563048</v>
       </c>
       <c r="S38">
-        <f>I38/$K38</f>
+        <f t="shared" si="22"/>
         <v>0.3539017248298556</v>
       </c>
       <c r="T38">
-        <f>(L38-$L$75)^2+(M38-$M$75)^2+(N38-$N$75)^2+(O38-$O$75)^2+(P38-$P$75)^2+(Q38-$Q$75)^2+(R38-$R$75)^2+(S38-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.5814991424615924</v>
       </c>
       <c r="U38">
-        <f>(L38-$L$76)^2+(M38-$M$76)^2+(N38-$N$76)^2+(O38-$O$76)^2+(P38-$P$76)^2+(Q38-$Q$76)^2+(R38-$R$76)^2+(S38-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.65105667145543533</v>
       </c>
     </row>
@@ -4041,51 +4042,51 @@
         <v>4030464</v>
       </c>
       <c r="J39" s="2">
-        <f>$B39*$B39+$C39*$C39+$D39*$D39+$E39*$E39+$F39*$F39+$G39*$G39+$H39*$H39+$I39*$I39</f>
+        <f t="shared" si="13"/>
         <v>163115610144768</v>
       </c>
       <c r="K39">
-        <f>SQRT($J39)</f>
+        <f t="shared" si="14"/>
         <v>12771672.174964719</v>
       </c>
       <c r="L39">
-        <f>B39/$K39</f>
+        <f t="shared" si="15"/>
         <v>0.3155784101552962</v>
       </c>
       <c r="M39">
-        <f>C39/$K39</f>
+        <f t="shared" si="16"/>
         <v>0.3155784101552962</v>
       </c>
       <c r="N39">
-        <f>D39/$K39</f>
+        <f t="shared" si="17"/>
         <v>0.3155784101552962</v>
       </c>
       <c r="O39">
-        <f>E39/$K39</f>
+        <f t="shared" si="18"/>
         <v>0.3155784101552962</v>
       </c>
       <c r="P39">
-        <f>F39/$K39</f>
+        <f t="shared" si="19"/>
         <v>0.3155784101552962</v>
       </c>
       <c r="Q39">
-        <f>G39/$K39</f>
+        <f t="shared" si="20"/>
         <v>0.55033795917326045</v>
       </c>
       <c r="R39">
-        <f>H39/$K39</f>
+        <f t="shared" si="21"/>
         <v>0.3155784101552962</v>
       </c>
       <c r="S39">
-        <f>I39/$K39</f>
+        <f t="shared" si="22"/>
         <v>0.3155784101552962</v>
       </c>
       <c r="T39">
-        <f>(L39-$L$75)^2+(M39-$M$75)^2+(N39-$N$75)^2+(O39-$O$75)^2+(P39-$P$75)^2+(Q39-$Q$75)^2+(R39-$R$75)^2+(S39-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.7264763589119112</v>
       </c>
       <c r="U39">
-        <f>(L39-$L$76)^2+(M39-$M$76)^2+(N39-$N$76)^2+(O39-$O$76)^2+(P39-$P$76)^2+(Q39-$Q$76)^2+(R39-$R$76)^2+(S39-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.78650667682009312</v>
       </c>
     </row>
@@ -4118,51 +4119,51 @@
         <v>0.97116968999999997</v>
       </c>
       <c r="J40" s="2">
-        <f>$B40*$B40+$C40*$C40+$D40*$D40+$E40*$E40+$F40*$F40+$G40*$G40+$H40*$H40+$I40*$I40</f>
+        <f t="shared" si="13"/>
         <v>7.3830491951116919</v>
       </c>
       <c r="K40">
-        <f>SQRT($J40)</f>
+        <f t="shared" si="14"/>
         <v>2.7171766955999921</v>
       </c>
       <c r="L40">
-        <f>B40/$K40</f>
+        <f t="shared" si="15"/>
         <v>0.35719557788481826</v>
       </c>
       <c r="M40">
-        <f>C40/$K40</f>
+        <f t="shared" si="16"/>
         <v>0.35696289886875582</v>
       </c>
       <c r="N40">
-        <f>D40/$K40</f>
+        <f t="shared" si="17"/>
         <v>0.35703843683444358</v>
       </c>
       <c r="O40">
-        <f>E40/$K40</f>
+        <f t="shared" si="18"/>
         <v>0.35688631570052204</v>
       </c>
       <c r="P40">
-        <f>F40/$K40</f>
+        <f t="shared" si="19"/>
         <v>0.35620076587852612</v>
       </c>
       <c r="Q40">
-        <f>G40/$K40</f>
+        <f t="shared" si="20"/>
         <v>0.32917192740846007</v>
       </c>
       <c r="R40">
-        <f>H40/$K40</f>
+        <f t="shared" si="21"/>
         <v>0.3565995916161952</v>
       </c>
       <c r="S40">
-        <f>I40/$K40</f>
+        <f t="shared" si="22"/>
         <v>0.35741867342401579</v>
       </c>
       <c r="T40">
-        <f>(L40-$L$75)^2+(M40-$M$75)^2+(N40-$N$75)^2+(O40-$O$75)^2+(P40-$P$75)^2+(Q40-$Q$75)^2+(R40-$R$75)^2+(S40-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.57345239622601407</v>
       </c>
       <c r="U40">
-        <f>(L40-$L$76)^2+(M40-$M$76)^2+(N40-$N$76)^2+(O40-$O$76)^2+(P40-$P$76)^2+(Q40-$Q$76)^2+(R40-$R$76)^2+(S40-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.64416116381077693</v>
       </c>
     </row>
@@ -4195,51 +4196,51 @@
         <v>0.99996766000000004</v>
       </c>
       <c r="J41" s="2">
-        <f>$B41*$B41+$C41*$C41+$D41*$D41+$E41*$E41+$F41*$F41+$G41*$G41+$H41*$H41+$I41*$I41</f>
+        <f t="shared" si="13"/>
         <v>6.0302175349316158</v>
       </c>
       <c r="K41">
-        <f>SQRT($J41)</f>
+        <f t="shared" si="14"/>
         <v>2.455650124698471</v>
       </c>
       <c r="L41">
-        <f>B41/$K41</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M41">
-        <f>C41/$K41</f>
+        <f t="shared" si="16"/>
         <v>0.36001337532094663</v>
       </c>
       <c r="N41">
-        <f>D41/$K41</f>
+        <f t="shared" si="17"/>
         <v>0.40701616649184796</v>
       </c>
       <c r="O41">
-        <f>E41/$K41</f>
+        <f t="shared" si="18"/>
         <v>0.40631901098798306</v>
       </c>
       <c r="P41">
-        <f>F41/$K41</f>
+        <f t="shared" si="19"/>
         <v>0.36766740950560389</v>
       </c>
       <c r="Q41">
-        <f>G41/$K41</f>
+        <f t="shared" si="20"/>
         <v>0.3668795000308217</v>
       </c>
       <c r="R41">
-        <f>H41/$K41</f>
+        <f t="shared" si="21"/>
         <v>0.32254055332791165</v>
       </c>
       <c r="S41">
-        <f>I41/$K41</f>
+        <f t="shared" si="22"/>
         <v>0.407210966229477</v>
       </c>
       <c r="T41">
-        <f>(L41-$L$75)^2+(M41-$M$75)^2+(N41-$N$75)^2+(O41-$O$75)^2+(P41-$P$75)^2+(Q41-$Q$75)^2+(R41-$R$75)^2+(S41-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.93495544839319733</v>
       </c>
       <c r="U41">
-        <f>(L41-$L$76)^2+(M41-$M$76)^2+(N41-$N$76)^2+(O41-$O$76)^2+(P41-$P$76)^2+(Q41-$Q$76)^2+(R41-$R$76)^2+(S41-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>1.013339006268912</v>
       </c>
     </row>
@@ -4272,51 +4273,51 @@
         <v>0.84083300000000005</v>
       </c>
       <c r="J42" s="2">
-        <f>$B42*$B42+$C42*$C42+$D42*$D42+$E42*$E42+$F42*$F42+$G42*$G42+$H42*$H42+$I42*$I42</f>
+        <f t="shared" si="13"/>
         <v>5.5655098985430005</v>
       </c>
       <c r="K42">
-        <f>SQRT($J42)</f>
+        <f t="shared" si="14"/>
         <v>2.359133293932965</v>
       </c>
       <c r="L42">
-        <f>B42/$K42</f>
+        <f t="shared" si="15"/>
         <v>0.3607515532033278</v>
       </c>
       <c r="M42">
-        <f>C42/$K42</f>
+        <f t="shared" si="16"/>
         <v>0.30036751285836211</v>
       </c>
       <c r="N42">
-        <f>D42/$K42</f>
+        <f t="shared" si="17"/>
         <v>0.36793809075235095</v>
       </c>
       <c r="O42">
-        <f>E42/$K42</f>
+        <f t="shared" si="18"/>
         <v>0.33587885942595475</v>
       </c>
       <c r="P42">
-        <f>F42/$K42</f>
+        <f t="shared" si="19"/>
         <v>0.34891669839804723</v>
       </c>
       <c r="Q42">
-        <f>G42/$K42</f>
+        <f t="shared" si="20"/>
         <v>0.37354396305893539</v>
       </c>
       <c r="R42">
-        <f>H42/$K42</f>
+        <f t="shared" si="21"/>
         <v>0.37833089054160135</v>
       </c>
       <c r="S42">
-        <f>I42/$K42</f>
+        <f t="shared" si="22"/>
         <v>0.35641606269657961</v>
       </c>
       <c r="T42">
-        <f>(L42-$L$75)^2+(M42-$M$75)^2+(N42-$N$75)^2+(O42-$O$75)^2+(P42-$P$75)^2+(Q42-$Q$75)^2+(R42-$R$75)^2+(S42-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.5658588539808842</v>
       </c>
       <c r="U42">
-        <f>(L42-$L$76)^2+(M42-$M$76)^2+(N42-$N$76)^2+(O42-$O$76)^2+(P42-$P$76)^2+(Q42-$Q$76)^2+(R42-$R$76)^2+(S42-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.63235166659329345</v>
       </c>
     </row>
@@ -4349,51 +4350,51 @@
         <v>4866048</v>
       </c>
       <c r="J43" s="2">
-        <f>$B43*$B43+$C43*$C43+$D43*$D43+$E43*$E43+$F43*$F43+$G43*$G43+$H43*$H43+$I43*$I43</f>
+        <f t="shared" si="13"/>
         <v>260042284597248</v>
       </c>
       <c r="K43">
-        <f>SQRT($J43)</f>
+        <f t="shared" si="14"/>
         <v>16125826.63298995</v>
       </c>
       <c r="L43">
-        <f>B43/$K43</f>
+        <f t="shared" si="15"/>
         <v>0.32309115796527532</v>
       </c>
       <c r="M43">
-        <f>C43/$K43</f>
+        <f t="shared" si="16"/>
         <v>0.31699509838102485</v>
       </c>
       <c r="N43">
-        <f>D43/$K43</f>
+        <f t="shared" si="17"/>
         <v>0.31699509838102485</v>
       </c>
       <c r="O43">
-        <f>E43/$K43</f>
+        <f t="shared" si="18"/>
         <v>0.31699509838102485</v>
       </c>
       <c r="P43">
-        <f>F43/$K43</f>
+        <f t="shared" si="19"/>
         <v>0.28651480045977246</v>
       </c>
       <c r="Q43">
-        <f>G43/$K43</f>
+        <f t="shared" si="20"/>
         <v>0.57912566050379544</v>
       </c>
       <c r="R43">
-        <f>H43/$K43</f>
+        <f t="shared" si="21"/>
         <v>0.29261086004402292</v>
       </c>
       <c r="S43">
-        <f>I43/$K43</f>
+        <f t="shared" si="22"/>
         <v>0.30175494942039865</v>
       </c>
       <c r="T43">
-        <f>(L43-$L$75)^2+(M43-$M$75)^2+(N43-$N$75)^2+(O43-$O$75)^2+(P43-$P$75)^2+(Q43-$Q$75)^2+(R43-$R$75)^2+(S43-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.740964888194106</v>
       </c>
       <c r="U43">
-        <f>(L43-$L$76)^2+(M43-$M$76)^2+(N43-$N$76)^2+(O43-$O$76)^2+(P43-$P$76)^2+(Q43-$Q$76)^2+(R43-$R$76)^2+(S43-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.79831777525428882</v>
       </c>
     </row>
@@ -4426,51 +4427,51 @@
         <v>23.801264</v>
       </c>
       <c r="J44" s="2">
-        <f>$B44*$B44+$C44*$C44+$D44*$D44+$E44*$E44+$F44*$F44+$G44*$G44+$H44*$H44+$I44*$I44</f>
+        <f t="shared" si="13"/>
         <v>246168.79089518372</v>
       </c>
       <c r="K44">
-        <f>SQRT($J44)</f>
+        <f t="shared" si="14"/>
         <v>496.15399917282105</v>
       </c>
       <c r="L44">
-        <f>B44/$K44</f>
+        <f t="shared" si="15"/>
         <v>5.2813118595609219E-3</v>
       </c>
       <c r="M44">
-        <f>C44/$K44</f>
+        <f t="shared" si="16"/>
         <v>0.41870523737860454</v>
       </c>
       <c r="N44">
-        <f>D44/$K44</f>
+        <f t="shared" si="17"/>
         <v>0.25132007644377891</v>
       </c>
       <c r="O44">
-        <f>E44/$K44</f>
+        <f t="shared" si="18"/>
         <v>0.3898215318680332</v>
       </c>
       <c r="P44">
-        <f>F44/$K44</f>
+        <f t="shared" si="19"/>
         <v>0.54359265963722636</v>
       </c>
       <c r="Q44">
-        <f>G44/$K44</f>
+        <f t="shared" si="20"/>
         <v>0.53553386940946224</v>
       </c>
       <c r="R44">
-        <f>H44/$K44</f>
+        <f t="shared" si="21"/>
         <v>0.15793876121253406</v>
       </c>
       <c r="S44">
-        <f>I44/$K44</f>
+        <f t="shared" si="22"/>
         <v>4.797152505004703E-2</v>
       </c>
       <c r="T44">
-        <f>(L44-$L$75)^2+(M44-$M$75)^2+(N44-$N$75)^2+(O44-$O$75)^2+(P44-$P$75)^2+(Q44-$Q$75)^2+(R44-$R$75)^2+(S44-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>1.495586927988976</v>
       </c>
       <c r="U44">
-        <f>(L44-$L$76)^2+(M44-$M$76)^2+(N44-$N$76)^2+(O44-$O$76)^2+(P44-$P$76)^2+(Q44-$Q$76)^2+(R44-$R$76)^2+(S44-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>1.5942765317654031</v>
       </c>
     </row>
@@ -4503,51 +4504,51 @@
         <v>211822</v>
       </c>
       <c r="J45" s="2">
-        <f>$B45*$B45+$C45*$C45+$D45*$D45+$E45*$E45+$F45*$F45+$G45*$G45+$H45*$H45+$I45*$I45</f>
+        <f t="shared" si="13"/>
         <v>658767111740</v>
       </c>
       <c r="K45">
-        <f>SQRT($J45)</f>
+        <f t="shared" si="14"/>
         <v>811644.69550413499</v>
       </c>
       <c r="L45">
-        <f>B45/$K45</f>
+        <f t="shared" si="15"/>
         <v>0.27476924476353437</v>
       </c>
       <c r="M45">
-        <f>C45/$K45</f>
+        <f t="shared" si="16"/>
         <v>0.30779231526281475</v>
       </c>
       <c r="N45">
-        <f>D45/$K45</f>
+        <f t="shared" si="17"/>
         <v>0.2781007517825268</v>
       </c>
       <c r="O45">
-        <f>E45/$K45</f>
+        <f t="shared" si="18"/>
         <v>0.2869667001954963</v>
       </c>
       <c r="P45">
-        <f>F45/$K45</f>
+        <f t="shared" si="19"/>
         <v>0.30657749798443956</v>
       </c>
       <c r="Q45">
-        <f>G45/$K45</f>
+        <f t="shared" si="20"/>
         <v>0.65706583552394204</v>
       </c>
       <c r="R45">
-        <f>H45/$K45</f>
+        <f t="shared" si="21"/>
         <v>0.27611712519207643</v>
       </c>
       <c r="S45">
-        <f>I45/$K45</f>
+        <f t="shared" si="22"/>
         <v>0.26097872772818592</v>
       </c>
       <c r="T45">
-        <f>(L45-$L$75)^2+(M45-$M$75)^2+(N45-$N$75)^2+(O45-$O$75)^2+(P45-$P$75)^2+(Q45-$Q$75)^2+(R45-$R$75)^2+(S45-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.88624463597686054</v>
       </c>
       <c r="U45">
-        <f>(L45-$L$76)^2+(M45-$M$76)^2+(N45-$N$76)^2+(O45-$O$76)^2+(P45-$P$76)^2+(Q45-$Q$76)^2+(R45-$R$76)^2+(S45-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.94280579800325448</v>
       </c>
     </row>
@@ -4580,51 +4581,51 @@
         <v>110592</v>
       </c>
       <c r="J46" s="2">
-        <f>$B46*$B46+$C46*$C46+$D46*$D46+$E46*$E46+$F46*$F46+$G46*$G46+$H46*$H46+$I46*$I46</f>
+        <f t="shared" si="13"/>
         <v>3193845055488</v>
       </c>
       <c r="K46">
-        <f>SQRT($J46)</f>
+        <f t="shared" si="14"/>
         <v>1787133.1946690488</v>
       </c>
       <c r="L46">
-        <f>B46/$K46</f>
+        <f t="shared" si="15"/>
         <v>5.5006532413609206E-2</v>
       </c>
       <c r="M46">
-        <f>C46/$K46</f>
+        <f t="shared" si="16"/>
         <v>0.46755552551567825</v>
       </c>
       <c r="N46">
-        <f>D46/$K46</f>
+        <f t="shared" si="17"/>
         <v>0.18564704689593106</v>
       </c>
       <c r="O46">
-        <f>E46/$K46</f>
+        <f t="shared" si="18"/>
         <v>0.24752939586124142</v>
       </c>
       <c r="P46">
-        <f>F46/$K46</f>
+        <f t="shared" si="19"/>
         <v>0.52943787448098856</v>
       </c>
       <c r="Q46">
-        <f>G46/$K46</f>
+        <f t="shared" si="20"/>
         <v>0.52943787448098856</v>
       </c>
       <c r="R46">
-        <f>H46/$K46</f>
+        <f t="shared" si="21"/>
         <v>0.34379082758505752</v>
       </c>
       <c r="S46">
-        <f>I46/$K46</f>
+        <f t="shared" si="22"/>
         <v>6.1882348965310356E-2</v>
       </c>
       <c r="T46">
-        <f>(L46-$L$75)^2+(M46-$M$75)^2+(N46-$N$75)^2+(O46-$O$75)^2+(P46-$P$75)^2+(Q46-$Q$75)^2+(R46-$R$75)^2+(S46-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>1.4367599069386598</v>
       </c>
       <c r="U46">
-        <f>(L46-$L$76)^2+(M46-$M$76)^2+(N46-$N$76)^2+(O46-$O$76)^2+(P46-$P$76)^2+(Q46-$Q$76)^2+(R46-$R$76)^2+(S46-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>1.5288361179138283</v>
       </c>
     </row>
@@ -4657,51 +4658,51 @@
         <v>205824</v>
       </c>
       <c r="J47" s="2">
-        <f>$B47*$B47+$C47*$C47+$D47*$D47+$E47*$E47+$F47*$F47+$G47*$G47+$H47*$H47+$I47*$I47</f>
+        <f t="shared" si="13"/>
         <v>629983936512</v>
       </c>
       <c r="K47">
-        <f>SQRT($J47)</f>
+        <f t="shared" si="14"/>
         <v>793715.27420857921</v>
       </c>
       <c r="L47">
-        <f>B47/$K47</f>
+        <f t="shared" si="15"/>
         <v>0.25738196887252479</v>
       </c>
       <c r="M47">
-        <f>C47/$K47</f>
+        <f t="shared" si="16"/>
         <v>0.29221561879512209</v>
       </c>
       <c r="N47">
-        <f>D47/$K47</f>
+        <f t="shared" si="17"/>
         <v>0.27673399660730108</v>
       </c>
       <c r="O47">
-        <f>E47/$K47</f>
+        <f t="shared" si="18"/>
         <v>0.27673399660730108</v>
       </c>
       <c r="P47">
-        <f>F47/$K47</f>
+        <f t="shared" si="19"/>
         <v>0.31350284930337602</v>
       </c>
       <c r="Q47">
-        <f>G47/$K47</f>
+        <f t="shared" si="20"/>
         <v>0.67151536239673759</v>
       </c>
       <c r="R47">
-        <f>H47/$K47</f>
+        <f t="shared" si="21"/>
         <v>0.2806044021542563</v>
       </c>
       <c r="S47">
-        <f>I47/$K47</f>
+        <f t="shared" si="22"/>
         <v>0.25931717164600238</v>
       </c>
       <c r="T47">
-        <f>(L47-$L$75)^2+(M47-$M$75)^2+(N47-$N$75)^2+(O47-$O$75)^2+(P47-$P$75)^2+(Q47-$Q$75)^2+(R47-$R$75)^2+(S47-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.91241691564768912</v>
       </c>
       <c r="U47">
-        <f>(L47-$L$76)^2+(M47-$M$76)^2+(N47-$N$76)^2+(O47-$O$76)^2+(P47-$P$76)^2+(Q47-$Q$76)^2+(R47-$R$76)^2+(S47-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.96849179971114885</v>
       </c>
     </row>
@@ -4734,51 +4735,51 @@
         <v>7.0944609999999999</v>
       </c>
       <c r="J48" s="2">
-        <f>$B48*$B48+$C48*$C48+$D48*$D48+$E48*$E48+$F48*$F48+$G48*$G48+$H48*$H48+$I48*$I48</f>
+        <f t="shared" si="13"/>
         <v>45608.355995532809</v>
       </c>
       <c r="K48">
-        <f>SQRT($J48)</f>
+        <f t="shared" si="14"/>
         <v>213.56112941154063</v>
       </c>
       <c r="L48">
-        <f>B48/$K48</f>
+        <f t="shared" si="15"/>
         <v>2.4539521842951998E-2</v>
       </c>
       <c r="M48">
-        <f>C48/$K48</f>
+        <f t="shared" si="16"/>
         <v>0.46900929619539339</v>
       </c>
       <c r="N48">
-        <f>D48/$K48</f>
+        <f t="shared" si="17"/>
         <v>0.16911419741746467</v>
       </c>
       <c r="O48">
-        <f>E48/$K48</f>
+        <f t="shared" si="18"/>
         <v>0.25991546379694513</v>
       </c>
       <c r="P48">
-        <f>F48/$K48</f>
+        <f t="shared" si="19"/>
         <v>0.56124292061138958</v>
       </c>
       <c r="Q48">
-        <f>G48/$K48</f>
+        <f t="shared" si="20"/>
         <v>0.55801336286415126</v>
       </c>
       <c r="R48">
-        <f>H48/$K48</f>
+        <f t="shared" si="21"/>
         <v>0.23621250336613903</v>
       </c>
       <c r="S48">
-        <f>I48/$K48</f>
+        <f t="shared" si="22"/>
         <v>3.3219814015539771E-2</v>
       </c>
       <c r="T48">
-        <f>(L48-$L$75)^2+(M48-$M$75)^2+(N48-$N$75)^2+(O48-$O$75)^2+(P48-$P$75)^2+(Q48-$Q$75)^2+(R48-$R$75)^2+(S48-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>1.5397023450155958</v>
       </c>
       <c r="U48">
-        <f>(L48-$L$76)^2+(M48-$M$76)^2+(N48-$N$76)^2+(O48-$O$76)^2+(P48-$P$76)^2+(Q48-$Q$76)^2+(R48-$R$76)^2+(S48-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>1.6343725734083212</v>
       </c>
     </row>
@@ -4811,51 +4812,51 @@
         <v>23.794976999999999</v>
       </c>
       <c r="J49" s="2">
-        <f>$B49*$B49+$C49*$C49+$D49*$D49+$E49*$E49+$F49*$F49+$G49*$G49+$H49*$H49+$I49*$I49</f>
+        <f t="shared" si="13"/>
         <v>13415.150050444952</v>
       </c>
       <c r="K49">
-        <f>SQRT($J49)</f>
+        <f t="shared" si="14"/>
         <v>115.82378879334311</v>
       </c>
       <c r="L49">
-        <f>B49/$K49</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M49">
-        <f>C49/$K49</f>
+        <f t="shared" si="16"/>
         <v>0.59954054105326482</v>
       </c>
       <c r="N49">
-        <f>D49/$K49</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O49">
-        <f>E49/$K49</f>
+        <f t="shared" si="18"/>
         <v>0.41750100306491833</v>
       </c>
       <c r="P49">
-        <f>F49/$K49</f>
+        <f t="shared" si="19"/>
         <v>0.4227025942602724</v>
       </c>
       <c r="Q49">
-        <f>G49/$K49</f>
+        <f t="shared" si="20"/>
         <v>0.41630006669900321</v>
       </c>
       <c r="R49">
-        <f>H49/$K49</f>
+        <f t="shared" si="21"/>
         <v>0.26843014137167398</v>
       </c>
       <c r="S49">
-        <f>I49/$K49</f>
+        <f t="shared" si="22"/>
         <v>0.20544118999988711</v>
       </c>
       <c r="T49">
-        <f>(L49-$L$75)^2+(M49-$M$75)^2+(N49-$N$75)^2+(O49-$O$75)^2+(P49-$P$75)^2+(Q49-$Q$75)^2+(R49-$R$75)^2+(S49-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>1.4687529011002229</v>
       </c>
       <c r="U49">
-        <f>(L49-$L$76)^2+(M49-$M$76)^2+(N49-$N$76)^2+(O49-$O$76)^2+(P49-$P$76)^2+(Q49-$Q$76)^2+(R49-$R$76)^2+(S49-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>1.5491774265989462</v>
       </c>
     </row>
@@ -4888,51 +4889,51 @@
         <v>1090.547</v>
       </c>
       <c r="J50" s="2">
-        <f>$B50*$B50+$C50*$C50+$D50*$D50+$E50*$E50+$F50*$F50+$G50*$G50+$H50*$H50+$I50*$I50</f>
+        <f t="shared" si="13"/>
         <v>7103072.8028250001</v>
       </c>
       <c r="K50">
-        <f>SQRT($J50)</f>
+        <f t="shared" si="14"/>
         <v>2665.1590576971198</v>
       </c>
       <c r="L50">
-        <f>B50/$K50</f>
+        <f t="shared" si="15"/>
         <v>8.0011734903453549E-2</v>
       </c>
       <c r="M50">
-        <f>C50/$K50</f>
+        <f t="shared" si="16"/>
         <v>0.40479272592915677</v>
       </c>
       <c r="N50">
-        <f>D50/$K50</f>
+        <f t="shared" si="17"/>
         <v>0.61266812398465298</v>
       </c>
       <c r="O50">
-        <f>E50/$K50</f>
+        <f t="shared" si="18"/>
         <v>0.42373043242522285</v>
       </c>
       <c r="P50">
-        <f>F50/$K50</f>
+        <f t="shared" si="19"/>
         <v>0.23765523418601947</v>
       </c>
       <c r="Q50">
-        <f>G50/$K50</f>
+        <f t="shared" si="20"/>
         <v>0.18903036895490744</v>
       </c>
       <c r="R50">
-        <f>H50/$K50</f>
+        <f t="shared" si="21"/>
         <v>0.12322829252966988</v>
       </c>
       <c r="S50">
-        <f>I50/$K50</f>
+        <f t="shared" si="22"/>
         <v>0.40918645994145936</v>
       </c>
       <c r="T50">
-        <f>(L50-$L$75)^2+(M50-$M$75)^2+(N50-$N$75)^2+(O50-$O$75)^2+(P50-$P$75)^2+(Q50-$Q$75)^2+(R50-$R$75)^2+(S50-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.73620296189997969</v>
       </c>
       <c r="U50">
-        <f>(L50-$L$76)^2+(M50-$M$76)^2+(N50-$N$76)^2+(O50-$O$76)^2+(P50-$P$76)^2+(Q50-$Q$76)^2+(R50-$R$76)^2+(S50-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.81571204107756889</v>
       </c>
     </row>
@@ -4965,51 +4966,51 @@
         <v>370928</v>
       </c>
       <c r="J51" s="2">
-        <f>$B51*$B51+$C51*$C51+$D51*$D51+$E51*$E51+$F51*$F51+$G51*$G51+$H51*$H51+$I51*$I51</f>
+        <f t="shared" si="13"/>
         <v>1061007744331</v>
       </c>
       <c r="K51">
-        <f>SQRT($J51)</f>
+        <f t="shared" si="14"/>
         <v>1030052.3017454017</v>
       </c>
       <c r="L51">
-        <f>B51/$K51</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M51">
-        <f>C51/$K51</f>
+        <f t="shared" si="16"/>
         <v>0.5623976559427033</v>
       </c>
       <c r="N51">
-        <f>D51/$K51</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O51">
-        <f>E51/$K51</f>
+        <f t="shared" si="18"/>
         <v>0.3741324584654474</v>
       </c>
       <c r="P51">
-        <f>F51/$K51</f>
+        <f t="shared" si="19"/>
         <v>0.37520813199981312</v>
       </c>
       <c r="Q51">
-        <f>G51/$K51</f>
+        <f t="shared" si="20"/>
         <v>0.37166365178864957</v>
       </c>
       <c r="R51">
-        <f>H51/$K51</f>
+        <f t="shared" si="21"/>
         <v>0.3676172553164147</v>
       </c>
       <c r="S51">
-        <f>I51/$K51</f>
+        <f t="shared" si="22"/>
         <v>0.36010598624115531</v>
       </c>
       <c r="T51">
-        <f>(L51-$L$75)^2+(M51-$M$75)^2+(N51-$N$75)^2+(O51-$O$75)^2+(P51-$P$75)^2+(Q51-$Q$75)^2+(R51-$R$75)^2+(S51-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>1.2705724171359138</v>
       </c>
       <c r="U51">
-        <f>(L51-$L$76)^2+(M51-$M$76)^2+(N51-$N$76)^2+(O51-$O$76)^2+(P51-$P$76)^2+(Q51-$Q$76)^2+(R51-$R$76)^2+(S51-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>1.3385892063909133</v>
       </c>
     </row>
@@ -5042,51 +5043,51 @@
         <v>10469376</v>
       </c>
       <c r="J52" s="2">
-        <f>$B52*$B52+$C52*$C52+$D52*$D52+$E52*$E52+$F52*$F52+$G52*$G52+$H52*$H52+$I52*$I52</f>
+        <f t="shared" si="13"/>
         <v>455664086286336</v>
       </c>
       <c r="K52">
-        <f>SQRT($J52)</f>
+        <f t="shared" si="14"/>
         <v>21346289.75457646</v>
       </c>
       <c r="L52">
-        <f>B52/$K52</f>
+        <f t="shared" si="15"/>
         <v>0.41907348316032894</v>
       </c>
       <c r="M52">
-        <f>C52/$K52</f>
+        <f t="shared" si="16"/>
         <v>0.32466681937146363</v>
       </c>
       <c r="N52">
-        <f>D52/$K52</f>
+        <f t="shared" si="17"/>
         <v>0.36150844426467937</v>
       </c>
       <c r="O52">
-        <f>E52/$K52</f>
+        <f t="shared" si="18"/>
         <v>0.32466681937146363</v>
       </c>
       <c r="P52">
-        <f>F52/$K52</f>
+        <f t="shared" si="19"/>
         <v>0.14966910112868889</v>
       </c>
       <c r="Q52">
-        <f>G52/$K52</f>
+        <f t="shared" si="20"/>
         <v>0.3822318582671132</v>
       </c>
       <c r="R52">
-        <f>H52/$K52</f>
+        <f t="shared" si="21"/>
         <v>0.27170698358746603</v>
       </c>
       <c r="S52">
-        <f>I52/$K52</f>
+        <f t="shared" si="22"/>
         <v>0.49045413139093441</v>
       </c>
       <c r="T52">
-        <f>(L52-$L$75)^2+(M52-$M$75)^2+(N52-$N$75)^2+(O52-$O$75)^2+(P52-$P$75)^2+(Q52-$Q$75)^2+(R52-$R$75)^2+(S52-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.37623972066283434</v>
       </c>
       <c r="U52">
-        <f>(L52-$L$76)^2+(M52-$M$76)^2+(N52-$N$76)^2+(O52-$O$76)^2+(P52-$P$76)^2+(Q52-$Q$76)^2+(R52-$R$76)^2+(S52-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.41736583600084676</v>
       </c>
     </row>
@@ -5119,128 +5120,128 @@
         <v>25.943933000000001</v>
       </c>
       <c r="J53" s="2">
-        <f>$B53*$B53+$C53*$C53+$D53*$D53+$E53*$E53+$F53*$F53+$G53*$G53+$H53*$H53+$I53*$I53</f>
+        <f t="shared" si="13"/>
         <v>18712.074391217353</v>
       </c>
       <c r="K53">
-        <f>SQRT($J53)</f>
+        <f t="shared" si="14"/>
         <v>136.79208453422061</v>
       </c>
       <c r="L53">
-        <f>B53/$K53</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M53">
-        <f>C53/$K53</f>
+        <f t="shared" si="16"/>
         <v>0.69899346388043393</v>
       </c>
       <c r="N53">
-        <f>D53/$K53</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O53">
-        <f>E53/$K53</f>
+        <f t="shared" si="18"/>
         <v>0.3709738993509164</v>
       </c>
       <c r="P53">
-        <f>F53/$K53</f>
+        <f t="shared" si="19"/>
         <v>0.37449495103778868</v>
       </c>
       <c r="Q53">
-        <f>G53/$K53</f>
+        <f t="shared" si="20"/>
         <v>0.37235473217207826</v>
       </c>
       <c r="R53">
-        <f>H53/$K53</f>
+        <f t="shared" si="21"/>
         <v>0.24273693988260991</v>
       </c>
       <c r="S53">
-        <f>I53/$K53</f>
+        <f t="shared" si="22"/>
         <v>0.18965960704772894</v>
       </c>
       <c r="T53">
-        <f>(L53-$L$75)^2+(M53-$M$75)^2+(N53-$N$75)^2+(O53-$O$75)^2+(P53-$P$75)^2+(Q53-$Q$75)^2+(R53-$R$75)^2+(S53-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>1.4969414737201014</v>
       </c>
       <c r="U53">
-        <f>(L53-$L$76)^2+(M53-$M$76)^2+(N53-$N$76)^2+(O53-$O$76)^2+(P53-$P$76)^2+(Q53-$Q$76)^2+(R53-$R$76)^2+(S53-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>1.5773830795371107</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>3944061</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>2186839</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>2827671</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>2219142</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>1677684</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="3">
         <v>2289978</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="3">
         <v>3025170</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="3">
         <v>3631939</v>
       </c>
       <c r="J54" s="2">
-        <f>$B54*$B54+$C54*$C54+$D54*$D54+$E54*$E54+$F54*$F54+$G54*$G54+$H54*$H54+$I54*$I54</f>
+        <f t="shared" si="13"/>
         <v>63659453757008</v>
       </c>
       <c r="K54">
-        <f>SQRT($J54)</f>
+        <f t="shared" si="14"/>
         <v>7978687.4708192451</v>
       </c>
       <c r="L54">
-        <f>B54/$K54</f>
+        <f t="shared" si="15"/>
         <v>0.49432453826832584</v>
       </c>
       <c r="M54">
-        <f>C54/$K54</f>
+        <f t="shared" si="16"/>
         <v>0.27408505571850117</v>
       </c>
       <c r="N54">
-        <f>D54/$K54</f>
+        <f t="shared" si="17"/>
         <v>0.35440302810979224</v>
       </c>
       <c r="O54">
-        <f>E54/$K54</f>
+        <f t="shared" si="18"/>
         <v>0.27813371661894914</v>
       </c>
       <c r="P54">
-        <f>F54/$K54</f>
+        <f t="shared" si="19"/>
         <v>0.21027067498706487</v>
       </c>
       <c r="Q54">
-        <f>G54/$K54</f>
+        <f t="shared" si="20"/>
         <v>0.28701186860310335</v>
       </c>
       <c r="R54">
-        <f>H54/$K54</f>
+        <f t="shared" si="21"/>
         <v>0.37915634759026073</v>
       </c>
       <c r="S54">
-        <f>I54/$K54</f>
+        <f t="shared" si="22"/>
         <v>0.45520507142098593</v>
       </c>
       <c r="T54">
-        <f>(L54-$L$75)^2+(M54-$M$75)^2+(N54-$N$75)^2+(O54-$O$75)^2+(P54-$P$75)^2+(Q54-$Q$75)^2+(R54-$R$75)^2+(S54-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.31275851087133488</v>
       </c>
       <c r="U54">
-        <f>(L54-$L$76)^2+(M54-$M$76)^2+(N54-$N$76)^2+(O54-$O$76)^2+(P54-$P$76)^2+(Q54-$Q$76)^2+(R54-$R$76)^2+(S54-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.35723995733425945</v>
       </c>
     </row>
@@ -5273,51 +5274,51 @@
         <v>3240456</v>
       </c>
       <c r="J55" s="2">
-        <f>$B55*$B55+$C55*$C55+$D55*$D55+$E55*$E55+$F55*$F55+$G55*$G55+$H55*$H55+$I55*$I55</f>
+        <f t="shared" si="13"/>
         <v>50398743483435</v>
       </c>
       <c r="K55">
-        <f>SQRT($J55)</f>
+        <f t="shared" si="14"/>
         <v>7099207.2433078755</v>
       </c>
       <c r="L55">
-        <f>B55/$K55</f>
+        <f t="shared" si="15"/>
         <v>0.50438561339020094</v>
       </c>
       <c r="M55">
-        <f>C55/$K55</f>
+        <f t="shared" si="16"/>
         <v>0.26952741826261106</v>
       </c>
       <c r="N55">
-        <f>D55/$K55</f>
+        <f t="shared" si="17"/>
         <v>0.35056703019143981</v>
       </c>
       <c r="O55">
-        <f>E55/$K55</f>
+        <f t="shared" si="18"/>
         <v>0.26824375380717624</v>
       </c>
       <c r="P55">
-        <f>F55/$K55</f>
+        <f t="shared" si="19"/>
         <v>0.20754373685722566</v>
       </c>
       <c r="Q55">
-        <f>G55/$K55</f>
+        <f t="shared" si="20"/>
         <v>0.27752070512622423</v>
       </c>
       <c r="R55">
-        <f>H55/$K55</f>
+        <f t="shared" si="21"/>
         <v>0.3868546030387941</v>
       </c>
       <c r="S55">
-        <f>I55/$K55</f>
+        <f t="shared" si="22"/>
         <v>0.45645321920340354</v>
       </c>
       <c r="T55">
-        <f>(L55-$L$75)^2+(M55-$M$75)^2+(N55-$N$75)^2+(O55-$O$75)^2+(P55-$P$75)^2+(Q55-$Q$75)^2+(R55-$R$75)^2+(S55-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.30198548534319247</v>
       </c>
       <c r="U55">
-        <f>(L55-$L$76)^2+(M55-$M$76)^2+(N55-$N$76)^2+(O55-$O$76)^2+(P55-$P$76)^2+(Q55-$Q$76)^2+(R55-$R$76)^2+(S55-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.34537924942666653</v>
       </c>
     </row>
@@ -5350,51 +5351,51 @@
         <v>0.13672677999999999</v>
       </c>
       <c r="J56" s="2">
-        <f>$B56*$B56+$C56*$C56+$D56*$D56+$E56*$E56+$F56*$F56+$G56*$G56+$H56*$H56+$I56*$I56</f>
+        <f t="shared" si="13"/>
         <v>0.19320827723982309</v>
       </c>
       <c r="K56">
-        <f>SQRT($J56)</f>
+        <f t="shared" si="14"/>
         <v>0.43955463510219417</v>
       </c>
       <c r="L56">
-        <f>B56/$K56</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M56">
-        <f>C56/$K56</f>
+        <f t="shared" si="16"/>
         <v>0.71845846859646412</v>
       </c>
       <c r="N56">
-        <f>D56/$K56</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f>E56/$K56</f>
+        <f t="shared" si="18"/>
         <v>0.31106212761972418</v>
       </c>
       <c r="P56">
-        <f>F56/$K56</f>
+        <f t="shared" si="19"/>
         <v>0.31108214788409455</v>
       </c>
       <c r="Q56">
-        <f>G56/$K56</f>
+        <f t="shared" si="20"/>
         <v>0.31106983997156684</v>
       </c>
       <c r="R56">
-        <f>H56/$K56</f>
+        <f t="shared" si="21"/>
         <v>0.31106983997156684</v>
       </c>
       <c r="S56">
-        <f>I56/$K56</f>
+        <f t="shared" si="22"/>
         <v>0.31105753205903908</v>
       </c>
       <c r="T56">
-        <f>(L56-$L$75)^2+(M56-$M$75)^2+(N56-$N$75)^2+(O56-$O$75)^2+(P56-$P$75)^2+(Q56-$Q$75)^2+(R56-$R$75)^2+(S56-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>1.3457128268586247</v>
       </c>
       <c r="U56">
-        <f>(L56-$L$76)^2+(M56-$M$76)^2+(N56-$N$76)^2+(O56-$O$76)^2+(P56-$P$76)^2+(Q56-$Q$76)^2+(R56-$R$76)^2+(S56-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>1.4158591906812821</v>
       </c>
     </row>
@@ -5427,51 +5428,51 @@
         <v>3656158</v>
       </c>
       <c r="J57" s="4">
-        <f>$B57*$B57+$C57*$C57+$D57*$D57+$E57*$E57+$F57*$F57+$G57*$G57+$H57*$H57+$I57*$I57</f>
+        <f t="shared" si="13"/>
         <v>58566570495082</v>
       </c>
       <c r="K57" s="3">
-        <f>SQRT($J57)</f>
+        <f t="shared" si="14"/>
         <v>7652879.8824417731</v>
       </c>
       <c r="L57" s="3">
-        <f>B57/$K57</f>
+        <f t="shared" si="15"/>
         <v>0.56868290981347602</v>
       </c>
       <c r="M57" s="3">
-        <f>C57/$K57</f>
+        <f t="shared" si="16"/>
         <v>0.24892798910521699</v>
       </c>
       <c r="N57" s="3">
-        <f>D57/$K57</f>
+        <f t="shared" si="17"/>
         <v>0.27328431023703742</v>
       </c>
       <c r="O57" s="3">
-        <f>E57/$K57</f>
+        <f t="shared" si="18"/>
         <v>0.2544960890433548</v>
       </c>
       <c r="P57" s="3">
-        <f>F57/$K57</f>
+        <f t="shared" si="19"/>
         <v>0.22927577943901564</v>
       </c>
       <c r="Q57" s="3">
-        <f>G57/$K57</f>
+        <f t="shared" si="20"/>
         <v>0.23737220862016079</v>
       </c>
       <c r="R57" s="3">
-        <f>H57/$K57</f>
+        <f t="shared" si="21"/>
         <v>0.37151674188996159</v>
       </c>
       <c r="S57" s="3">
-        <f>I57/$K57</f>
+        <f t="shared" si="22"/>
         <v>0.47774929910874869</v>
       </c>
       <c r="T57" s="3">
-        <f>(L57-$L$75)^2+(M57-$M$75)^2+(N57-$N$75)^2+(O57-$O$75)^2+(P57-$P$75)^2+(Q57-$Q$75)^2+(R57-$R$75)^2+(S57-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.25544321741505321</v>
       </c>
       <c r="U57">
-        <f>(L57-$L$76)^2+(M57-$M$76)^2+(N57-$N$76)^2+(O57-$O$76)^2+(P57-$P$76)^2+(Q57-$Q$76)^2+(R57-$R$76)^2+(S57-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.29346771209161471</v>
       </c>
     </row>
@@ -5504,51 +5505,51 @@
         <v>17</v>
       </c>
       <c r="J58" s="2">
-        <f>$B58*$B58+$C58*$C58+$D58*$D58+$E58*$E58+$F58*$F58+$G58*$G58+$H58*$H58+$I58*$I58</f>
+        <f t="shared" si="13"/>
         <v>749</v>
       </c>
       <c r="K58">
-        <f>SQRT($J58)</f>
+        <f t="shared" si="14"/>
         <v>27.367864366808018</v>
       </c>
       <c r="L58">
-        <f>B58/$K58</f>
+        <f t="shared" si="15"/>
         <v>0.14615681904837391</v>
       </c>
       <c r="M58">
-        <f>C58/$K58</f>
+        <f t="shared" si="16"/>
         <v>0.32885284285884131</v>
       </c>
       <c r="N58">
-        <f>D58/$K58</f>
+        <f t="shared" si="17"/>
         <v>0.54808807143140226</v>
       </c>
       <c r="O58">
-        <f>E58/$K58</f>
+        <f t="shared" si="18"/>
         <v>0.32885284285884131</v>
       </c>
       <c r="P58">
-        <f>F58/$K58</f>
+        <f t="shared" si="19"/>
         <v>0.1826960238104674</v>
       </c>
       <c r="Q58">
-        <f>G58/$K58</f>
+        <f t="shared" si="20"/>
         <v>0.14615681904837391</v>
       </c>
       <c r="R58">
-        <f>H58/$K58</f>
+        <f t="shared" si="21"/>
         <v>0.14615681904837391</v>
       </c>
       <c r="S58">
-        <f>I58/$K58</f>
+        <f t="shared" si="22"/>
         <v>0.62116648095558913</v>
       </c>
       <c r="T58">
-        <f>(L58-$L$75)^2+(M58-$M$75)^2+(N58-$N$75)^2+(O58-$O$75)^2+(P58-$P$75)^2+(Q58-$Q$75)^2+(R58-$R$75)^2+(S58-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.45546019868611037</v>
       </c>
       <c r="U58">
-        <f>(L58-$L$76)^2+(M58-$M$76)^2+(N58-$N$76)^2+(O58-$O$76)^2+(P58-$P$76)^2+(Q58-$Q$76)^2+(R58-$R$76)^2+(S58-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.51030390182821495</v>
       </c>
     </row>
@@ -5581,51 +5582,51 @@
         <v>0.88078382</v>
       </c>
       <c r="J59" s="2">
-        <f>$B59*$B59+$C59*$C59+$D59*$D59+$E59*$E59+$F59*$F59+$G59*$G59+$H59*$H59+$I59*$I59</f>
+        <f t="shared" si="13"/>
         <v>4.6278080975242908</v>
       </c>
       <c r="K59">
-        <f>SQRT($J59)</f>
+        <f t="shared" si="14"/>
         <v>2.1512340871054203</v>
       </c>
       <c r="L59">
-        <f>B59/$K59</f>
+        <f t="shared" si="15"/>
         <v>0.42891184438301622</v>
       </c>
       <c r="M59">
-        <f>C59/$K59</f>
+        <f t="shared" si="16"/>
         <v>0.45737670572332434</v>
       </c>
       <c r="N59">
-        <f>D59/$K59</f>
+        <f t="shared" si="17"/>
         <v>0.36546927863990847</v>
       </c>
       <c r="O59">
-        <f>E59/$K59</f>
+        <f t="shared" si="18"/>
         <v>0.30337634751694875</v>
       </c>
       <c r="P59">
-        <f>F59/$K59</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q59">
-        <f>G59/$K59</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R59">
-        <f>H59/$K59</f>
+        <f t="shared" si="21"/>
         <v>0.46217065170150301</v>
       </c>
       <c r="S59">
-        <f>I59/$K59</f>
+        <f t="shared" si="22"/>
         <v>0.40943188157878868</v>
       </c>
       <c r="T59">
-        <f>(L59-$L$75)^2+(M59-$M$75)^2+(N59-$N$75)^2+(O59-$O$75)^2+(P59-$P$75)^2+(Q59-$Q$75)^2+(R59-$R$75)^2+(S59-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.45324282091878382</v>
       </c>
       <c r="U59">
-        <f>(L59-$L$76)^2+(M59-$M$76)^2+(N59-$N$76)^2+(O59-$O$76)^2+(P59-$P$76)^2+(Q59-$Q$76)^2+(R59-$R$76)^2+(S59-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.49570351964062709</v>
       </c>
     </row>
@@ -5658,51 +5659,51 @@
         <v>0.23914442</v>
       </c>
       <c r="J60" s="2">
-        <f>$B60*$B60+$C60*$C60+$D60*$D60+$E60*$E60+$F60*$F60+$G60*$G60+$H60*$H60+$I60*$I60</f>
+        <f t="shared" si="13"/>
         <v>0.42506215355587973</v>
       </c>
       <c r="K60">
-        <f>SQRT($J60)</f>
+        <f t="shared" si="14"/>
         <v>0.65196790837884022</v>
       </c>
       <c r="L60">
-        <f>B60/$K60</f>
+        <f t="shared" si="15"/>
         <v>0.31179405824662132</v>
       </c>
       <c r="M60">
-        <f>C60/$K60</f>
+        <f t="shared" si="16"/>
         <v>0.21881552476215421</v>
       </c>
       <c r="N60">
-        <f>D60/$K60</f>
+        <f t="shared" si="17"/>
         <v>0.48485295968941799</v>
       </c>
       <c r="O60">
-        <f>E60/$K60</f>
+        <f t="shared" si="18"/>
         <v>0.66135954616565329</v>
       </c>
       <c r="P60">
-        <f>F60/$K60</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q60">
-        <f>G60/$K60</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R60">
-        <f>H60/$K60</f>
+        <f t="shared" si="21"/>
         <v>0.21881552476215421</v>
       </c>
       <c r="S60">
-        <f>I60/$K60</f>
+        <f t="shared" si="22"/>
         <v>0.36680397443893803</v>
       </c>
       <c r="T60">
-        <f>(L60-$L$75)^2+(M60-$M$75)^2+(N60-$N$75)^2+(O60-$O$75)^2+(P60-$P$75)^2+(Q60-$Q$75)^2+(R60-$R$75)^2+(S60-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.60994265616034948</v>
       </c>
       <c r="U60">
-        <f>(L60-$L$76)^2+(M60-$M$76)^2+(N60-$N$76)^2+(O60-$O$76)^2+(P60-$P$76)^2+(Q60-$Q$76)^2+(R60-$R$76)^2+(S60-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.65928967800467975</v>
       </c>
     </row>
@@ -5735,51 +5736,51 @@
         <v>3.5472299999999999</v>
       </c>
       <c r="J61" s="2">
-        <f>$B61*$B61+$C61*$C61+$D61*$D61+$E61*$E61+$F61*$F61+$G61*$G61+$H61*$H61+$I61*$I61</f>
+        <f t="shared" si="13"/>
         <v>1090.7040770078449</v>
       </c>
       <c r="K61">
-        <f>SQRT($J61)</f>
+        <f t="shared" si="14"/>
         <v>33.025809255911426</v>
       </c>
       <c r="L61">
-        <f>B61/$K61</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M61">
-        <f>C61/$K61</f>
+        <f t="shared" si="16"/>
         <v>0.91431352267605992</v>
       </c>
       <c r="N61">
-        <f>D61/$K61</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O61">
-        <f>E61/$K61</f>
+        <f t="shared" si="18"/>
         <v>0.2100926565109999</v>
       </c>
       <c r="P61">
-        <f>F61/$K61</f>
+        <f t="shared" si="19"/>
         <v>0.21210035901682514</v>
       </c>
       <c r="Q61">
-        <f>G61/$K61</f>
+        <f t="shared" si="20"/>
         <v>0.2108798590227853</v>
       </c>
       <c r="R61">
-        <f>H61/$K61</f>
+        <f t="shared" si="21"/>
         <v>0.13747196820581603</v>
       </c>
       <c r="S61">
-        <f>I61/$K61</f>
+        <f t="shared" si="22"/>
         <v>0.10740781467346078</v>
       </c>
       <c r="T61">
-        <f>(L61-$L$75)^2+(M61-$M$75)^2+(N61-$N$75)^2+(O61-$O$75)^2+(P61-$P$75)^2+(Q61-$Q$75)^2+(R61-$R$75)^2+(S61-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>1.6492326765060428</v>
       </c>
       <c r="U61">
-        <f>(L61-$L$76)^2+(M61-$M$76)^2+(N61-$N$76)^2+(O61-$O$76)^2+(P61-$P$76)^2+(Q61-$Q$76)^2+(R61-$R$76)^2+(S61-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>1.7238725532675541</v>
       </c>
     </row>
@@ -5812,51 +5813,51 @@
         <v>26.801296000000001</v>
       </c>
       <c r="J62" s="2">
-        <f>$B62*$B62+$C62*$C62+$D62*$D62+$E62*$E62+$F62*$F62+$G62*$G62+$H62*$H62+$I62*$I62</f>
+        <f t="shared" si="13"/>
         <v>3575.9425272855588</v>
       </c>
       <c r="K62">
-        <f>SQRT($J62)</f>
+        <f t="shared" si="14"/>
         <v>59.79918500519517</v>
       </c>
       <c r="L62">
-        <f>B62/$K62</f>
+        <f t="shared" si="15"/>
         <v>0.37793934813721192</v>
       </c>
       <c r="M62">
-        <f>C62/$K62</f>
+        <f t="shared" si="16"/>
         <v>0.11084395212784499</v>
       </c>
       <c r="N62">
-        <f>D62/$K62</f>
+        <f t="shared" si="17"/>
         <v>0.55922071508323656</v>
       </c>
       <c r="O62">
-        <f>E62/$K62</f>
+        <f t="shared" si="18"/>
         <v>0.5285796285894856</v>
       </c>
       <c r="P62">
-        <f>F62/$K62</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q62">
-        <f>G62/$K62</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R62">
-        <f>H62/$K62</f>
+        <f t="shared" si="21"/>
         <v>0.22776845535297352</v>
       </c>
       <c r="S62">
-        <f>I62/$K62</f>
+        <f t="shared" si="22"/>
         <v>0.44818831557104977</v>
       </c>
       <c r="T62">
-        <f>(L62-$L$75)^2+(M62-$M$75)^2+(N62-$N$75)^2+(O62-$O$75)^2+(P62-$P$75)^2+(Q62-$Q$75)^2+(R62-$R$75)^2+(S62-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.39057978050383052</v>
       </c>
       <c r="U62">
-        <f>(L62-$L$76)^2+(M62-$M$76)^2+(N62-$N$76)^2+(O62-$O$76)^2+(P62-$P$76)^2+(Q62-$Q$76)^2+(R62-$R$76)^2+(S62-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.42960151312986422</v>
       </c>
     </row>
@@ -5889,51 +5890,51 @@
         <v>112.071591</v>
       </c>
       <c r="J63" s="2">
-        <f>$B63*$B63+$C63*$C63+$D63*$D63+$E63*$E63+$F63*$F63+$G63*$G63+$H63*$H63+$I63*$I63</f>
+        <f t="shared" si="13"/>
         <v>52760.098696099798</v>
       </c>
       <c r="K63">
-        <f>SQRT($J63)</f>
+        <f t="shared" si="14"/>
         <v>229.69566538378515</v>
       </c>
       <c r="L63">
-        <f>B63/$K63</f>
+        <f t="shared" si="15"/>
         <v>0.48402804125292143</v>
       </c>
       <c r="M63">
-        <f>C63/$K63</f>
+        <f t="shared" si="16"/>
         <v>0.20227868437294383</v>
       </c>
       <c r="N63">
-        <f>D63/$K63</f>
+        <f t="shared" si="17"/>
         <v>0.46056342344659662</v>
       </c>
       <c r="O63">
-        <f>E63/$K63</f>
+        <f t="shared" si="18"/>
         <v>0.31914573519494416</v>
       </c>
       <c r="P63">
-        <f>F63/$K63</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q63">
-        <f>G63/$K63</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R63">
-        <f>H63/$K63</f>
+        <f t="shared" si="21"/>
         <v>0.41565375576625818</v>
       </c>
       <c r="S63">
-        <f>I63/$K63</f>
+        <f t="shared" si="22"/>
         <v>0.48791339102000936</v>
       </c>
       <c r="T63">
-        <f>(L63-$L$75)^2+(M63-$M$75)^2+(N63-$N$75)^2+(O63-$O$75)^2+(P63-$P$75)^2+(Q63-$Q$75)^2+(R63-$R$75)^2+(S63-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.24957094085543668</v>
       </c>
       <c r="U63">
-        <f>(L63-$L$76)^2+(M63-$M$76)^2+(N63-$N$76)^2+(O63-$O$76)^2+(P63-$P$76)^2+(Q63-$Q$76)^2+(R63-$R$76)^2+(S63-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.27969774241693052</v>
       </c>
     </row>
@@ -5966,51 +5967,51 @@
         <v>112.071591</v>
       </c>
       <c r="J64" s="2">
-        <f>$B64*$B64+$C64*$C64+$D64*$D64+$E64*$E64+$F64*$F64+$G64*$G64+$H64*$H64+$I64*$I64</f>
+        <f t="shared" si="13"/>
         <v>52760.098696099798</v>
       </c>
       <c r="K64">
-        <f>SQRT($J64)</f>
+        <f t="shared" si="14"/>
         <v>229.69566538378515</v>
       </c>
       <c r="L64">
-        <f>B64/$K64</f>
+        <f t="shared" si="15"/>
         <v>0.48402804125292143</v>
       </c>
       <c r="M64">
-        <f>C64/$K64</f>
+        <f t="shared" si="16"/>
         <v>0.20227868437294383</v>
       </c>
       <c r="N64">
-        <f>D64/$K64</f>
+        <f t="shared" si="17"/>
         <v>0.46056342344659662</v>
       </c>
       <c r="O64">
-        <f>E64/$K64</f>
+        <f t="shared" si="18"/>
         <v>0.31914573519494416</v>
       </c>
       <c r="P64">
-        <f>F64/$K64</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q64">
-        <f>G64/$K64</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R64">
-        <f>H64/$K64</f>
+        <f t="shared" si="21"/>
         <v>0.41565375576625818</v>
       </c>
       <c r="S64">
-        <f>I64/$K64</f>
+        <f t="shared" si="22"/>
         <v>0.48791339102000936</v>
       </c>
       <c r="T64">
-        <f>(L64-$L$75)^2+(M64-$M$75)^2+(N64-$N$75)^2+(O64-$O$75)^2+(P64-$P$75)^2+(Q64-$Q$75)^2+(R64-$R$75)^2+(S64-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>0.24957094085543668</v>
       </c>
       <c r="U64">
-        <f>(L64-$L$76)^2+(M64-$M$76)^2+(N64-$N$76)^2+(O64-$O$76)^2+(P64-$P$76)^2+(Q64-$Q$76)^2+(R64-$R$76)^2+(S64-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>0.27969774241693052</v>
       </c>
     </row>
@@ -6043,51 +6044,51 @@
         <v>8.2830769999999998E-2</v>
       </c>
       <c r="J65" s="2">
-        <f>$B65*$B65+$C65*$C65+$D65*$D65+$E65*$E65+$F65*$F65+$G65*$G65+$H65*$H65+$I65*$I65</f>
+        <f t="shared" si="13"/>
         <v>9.2882812224490394E-2</v>
       </c>
       <c r="K65">
-        <f>SQRT($J65)</f>
+        <f t="shared" si="14"/>
         <v>0.30476681614718226</v>
       </c>
       <c r="L65">
-        <f>B65/$K65</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M65">
-        <f>C65/$K65</f>
+        <f t="shared" si="16"/>
         <v>0.89824913834383358</v>
       </c>
       <c r="N65">
-        <f>D65/$K65</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O65">
-        <f>E65/$K65</f>
+        <f t="shared" si="18"/>
         <v>0.15451820048957582</v>
       </c>
       <c r="P65">
-        <f>F65/$K65</f>
+        <f t="shared" si="19"/>
         <v>0.14532700954755665</v>
       </c>
       <c r="Q65">
-        <f>G65/$K65</f>
+        <f t="shared" si="20"/>
         <v>0.17507355516760814</v>
       </c>
       <c r="R65">
-        <f>H65/$K65</f>
+        <f t="shared" si="21"/>
         <v>0.20889072112514703</v>
       </c>
       <c r="S65">
-        <f>I65/$K65</f>
+        <f t="shared" si="22"/>
         <v>0.27178408413072835</v>
       </c>
       <c r="T65">
-        <f>(L65-$L$75)^2+(M65-$M$75)^2+(N65-$N$75)^2+(O65-$O$75)^2+(P65-$P$75)^2+(Q65-$Q$75)^2+(R65-$R$75)^2+(S65-$S$75)^2</f>
+        <f t="shared" si="23"/>
         <v>1.4458571551466033</v>
       </c>
       <c r="U65">
-        <f>(L65-$L$76)^2+(M65-$M$76)^2+(N65-$N$76)^2+(O65-$O$76)^2+(P65-$P$76)^2+(Q65-$Q$76)^2+(R65-$R$76)^2+(S65-$S$76)^2</f>
+        <f t="shared" si="24"/>
         <v>1.5062356905169416</v>
       </c>
     </row>
@@ -6120,51 +6121,51 @@
         <v>13.890165</v>
       </c>
       <c r="J66" s="2">
-        <f>$B66*$B66+$C66*$C66+$D66*$D66+$E66*$E66+$F66*$F66+$G66*$G66+$H66*$H66+$I66*$I66</f>
+        <f t="shared" ref="J66:J76" si="25">$B66*$B66+$C66*$C66+$D66*$D66+$E66*$E66+$F66*$F66+$G66*$G66+$H66*$H66+$I66*$I66</f>
         <v>1898.511632467324</v>
       </c>
       <c r="K66">
-        <f>SQRT($J66)</f>
+        <f t="shared" ref="K66:K76" si="26">SQRT($J66)</f>
         <v>43.571913344117952</v>
       </c>
       <c r="L66">
-        <f>B66/$K66</f>
+        <f t="shared" ref="L66:L76" si="27">B66/$K66</f>
         <v>0.38738691291092059</v>
       </c>
       <c r="M66">
-        <f>C66/$K66</f>
+        <f t="shared" ref="M66:M76" si="28">C66/$K66</f>
         <v>0.58175297007979332</v>
       </c>
       <c r="N66">
-        <f>D66/$K66</f>
+        <f t="shared" ref="N66:N76" si="29">D66/$K66</f>
         <v>0.22411944416754151</v>
       </c>
       <c r="O66">
-        <f>E66/$K66</f>
+        <f t="shared" ref="O66:O76" si="30">E66/$K66</f>
         <v>0.14561451432925224</v>
       </c>
       <c r="P66">
-        <f>F66/$K66</f>
+        <f t="shared" ref="P66:P76" si="31">F66/$K66</f>
         <v>0</v>
       </c>
       <c r="Q66">
-        <f>G66/$K66</f>
+        <f t="shared" ref="Q66:Q76" si="32">G66/$K66</f>
         <v>0</v>
       </c>
       <c r="R66">
-        <f>H66/$K66</f>
+        <f t="shared" ref="R66:R76" si="33">H66/$K66</f>
         <v>0.58175297007979332</v>
       </c>
       <c r="S66">
-        <f>I66/$K66</f>
+        <f t="shared" ref="S66:S76" si="34">I66/$K66</f>
         <v>0.31878712532772263</v>
       </c>
       <c r="T66">
-        <f>(L66-$L$75)^2+(M66-$M$75)^2+(N66-$N$75)^2+(O66-$O$75)^2+(P66-$P$75)^2+(Q66-$Q$75)^2+(R66-$R$75)^2+(S66-$S$75)^2</f>
+        <f t="shared" ref="T66:T97" si="35">(L66-$L$75)^2+(M66-$M$75)^2+(N66-$N$75)^2+(O66-$O$75)^2+(P66-$P$75)^2+(Q66-$Q$75)^2+(R66-$R$75)^2+(S66-$S$75)^2</f>
         <v>0.70733523137164744</v>
       </c>
       <c r="U66">
-        <f>(L66-$L$76)^2+(M66-$M$76)^2+(N66-$N$76)^2+(O66-$O$76)^2+(P66-$P$76)^2+(Q66-$Q$76)^2+(R66-$R$76)^2+(S66-$S$76)^2</f>
+        <f t="shared" ref="U66:U76" si="36">(L66-$L$76)^2+(M66-$M$76)^2+(N66-$N$76)^2+(O66-$O$76)^2+(P66-$P$76)^2+(Q66-$Q$76)^2+(R66-$R$76)^2+(S66-$S$76)^2</f>
         <v>0.74803921227452963</v>
       </c>
     </row>
@@ -6197,51 +6198,51 @@
         <v>0.19609963</v>
       </c>
       <c r="J67" s="2">
-        <f>$B67*$B67+$C67*$C67+$D67*$D67+$E67*$E67+$F67*$F67+$G67*$G67+$H67*$H67+$I67*$I67</f>
+        <f t="shared" si="25"/>
         <v>0.15542890562626061</v>
       </c>
       <c r="K67">
-        <f>SQRT($J67)</f>
+        <f t="shared" si="26"/>
         <v>0.39424472808936911</v>
       </c>
       <c r="L67">
-        <f>B67/$K67</f>
+        <f t="shared" si="27"/>
         <v>0.53399778107439166</v>
       </c>
       <c r="M67">
-        <f>C67/$K67</f>
+        <f t="shared" si="28"/>
         <v>0.16812194375107811</v>
       </c>
       <c r="N67">
-        <f>D67/$K67</f>
+        <f t="shared" si="29"/>
         <v>0.46272032826941722</v>
       </c>
       <c r="O67">
-        <f>E67/$K67</f>
+        <f t="shared" si="30"/>
         <v>0.17403862401032874</v>
       </c>
       <c r="P67">
-        <f>F67/$K67</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q67">
-        <f>G67/$K67</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R67">
-        <f>H67/$K67</f>
+        <f t="shared" si="33"/>
         <v>0.44132671308811777</v>
       </c>
       <c r="S67">
-        <f>I67/$K67</f>
+        <f t="shared" si="34"/>
         <v>0.49740583964269847</v>
       </c>
       <c r="T67">
-        <f>(L67-$L$75)^2+(M67-$M$75)^2+(N67-$N$75)^2+(O67-$O$75)^2+(P67-$P$75)^2+(Q67-$Q$75)^2+(R67-$R$75)^2+(S67-$S$75)^2</f>
+        <f t="shared" si="35"/>
         <v>0.18622077394319922</v>
       </c>
       <c r="U67">
-        <f>(L67-$L$76)^2+(M67-$M$76)^2+(N67-$N$76)^2+(O67-$O$76)^2+(P67-$P$76)^2+(Q67-$Q$76)^2+(R67-$R$76)^2+(S67-$S$76)^2</f>
+        <f t="shared" si="36"/>
         <v>0.20859244908073599</v>
       </c>
     </row>
@@ -6274,128 +6275,128 @@
         <v>8.2461430000000002E-2</v>
       </c>
       <c r="J68" s="2">
-        <f>$B68*$B68+$C68*$C68+$D68*$D68+$E68*$E68+$F68*$F68+$G68*$G68+$H68*$H68+$I68*$I68</f>
+        <f t="shared" si="25"/>
         <v>0.35369950170792241</v>
       </c>
       <c r="K68">
-        <f>SQRT($J68)</f>
+        <f t="shared" si="26"/>
         <v>0.59472640912265062</v>
       </c>
       <c r="L68">
-        <f>B68/$K68</f>
+        <f t="shared" si="27"/>
         <v>0.8407227127135779</v>
       </c>
       <c r="M68">
-        <f>C68/$K68</f>
+        <f t="shared" si="28"/>
         <v>0.23273533489826054</v>
       </c>
       <c r="N68">
-        <f>D68/$K68</f>
+        <f t="shared" si="29"/>
         <v>9.4038635483675151E-2</v>
       </c>
       <c r="O68">
-        <f>E68/$K68</f>
+        <f t="shared" si="30"/>
         <v>7.9472088804202909E-2</v>
       </c>
       <c r="P68">
-        <f>F68/$K68</f>
+        <f t="shared" si="31"/>
         <v>0.19958030815396555</v>
       </c>
       <c r="Q68">
-        <f>G68/$K68</f>
+        <f t="shared" si="32"/>
         <v>0.21288545128973657</v>
       </c>
       <c r="R68">
-        <f>H68/$K68</f>
+        <f t="shared" si="33"/>
         <v>0.34566305925991631</v>
       </c>
       <c r="S68">
-        <f>I68/$K68</f>
+        <f t="shared" si="34"/>
         <v>0.13865439424768164</v>
       </c>
       <c r="T68">
-        <f>(L68-$L$75)^2+(M68-$M$75)^2+(N68-$N$75)^2+(O68-$O$75)^2+(P68-$P$75)^2+(Q68-$Q$75)^2+(R68-$R$75)^2+(S68-$S$75)^2</f>
+        <f t="shared" si="35"/>
         <v>0.50247162521627708</v>
       </c>
       <c r="U68">
-        <f>(L68-$L$76)^2+(M68-$M$76)^2+(N68-$N$76)^2+(O68-$O$76)^2+(P68-$P$76)^2+(Q68-$Q$76)^2+(R68-$R$76)^2+(S68-$S$76)^2</f>
+        <f t="shared" si="36"/>
         <v>0.52927675099197247</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="6">
         <v>2033269</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="6">
         <v>470450</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="6">
         <v>1051467</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="6">
         <v>508094</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="6">
         <v>126320</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="6">
         <v>125952</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="6">
         <v>1387093</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="6">
         <v>1706958</v>
       </c>
       <c r="J69" s="2">
-        <f>$B69*$B69+$C69*$C69+$D69*$D69+$E69*$E69+$F69*$F69+$G69*$G69+$H69*$H69+$I69*$I69</f>
+        <f t="shared" si="25"/>
         <v>10588801646903</v>
       </c>
       <c r="K69">
-        <f>SQRT($J69)</f>
+        <f t="shared" si="26"/>
         <v>3254043.891360871</v>
       </c>
       <c r="L69">
-        <f>B69/$K69</f>
+        <f t="shared" si="27"/>
         <v>0.62484375376684553</v>
       </c>
       <c r="M69">
-        <f>C69/$K69</f>
+        <f t="shared" si="28"/>
         <v>0.14457395650040034</v>
       </c>
       <c r="N69">
-        <f>D69/$K69</f>
+        <f t="shared" si="29"/>
         <v>0.32312625001510564</v>
       </c>
       <c r="O69">
-        <f>E69/$K69</f>
+        <f t="shared" si="30"/>
         <v>0.1561423314998712</v>
       </c>
       <c r="P69">
-        <f>F69/$K69</f>
+        <f t="shared" si="31"/>
         <v>3.8819390339314634E-2</v>
       </c>
       <c r="Q69">
-        <f>G69/$K69</f>
+        <f t="shared" si="32"/>
         <v>3.8706300285127906E-2</v>
       </c>
       <c r="R69">
-        <f>H69/$K69</f>
+        <f t="shared" si="33"/>
         <v>0.42626745253270232</v>
       </c>
       <c r="S69">
-        <f>I69/$K69</f>
+        <f t="shared" si="34"/>
         <v>0.52456514324585046</v>
       </c>
       <c r="T69">
-        <f>(L69-$L$75)^2+(M69-$M$75)^2+(N69-$N$75)^2+(O69-$O$75)^2+(P69-$P$75)^2+(Q69-$Q$75)^2+(R69-$R$75)^2+(S69-$S$75)^2</f>
+        <f t="shared" si="35"/>
         <v>0.13886989819891812</v>
       </c>
       <c r="U69">
-        <f>(L69-$L$76)^2+(M69-$M$76)^2+(N69-$N$76)^2+(O69-$O$76)^2+(P69-$P$76)^2+(Q69-$Q$76)^2+(R69-$R$76)^2+(S69-$S$76)^2</f>
+        <f t="shared" si="36"/>
         <v>0.15228266969054496</v>
       </c>
     </row>
@@ -6428,128 +6429,128 @@
         <v>1747028</v>
       </c>
       <c r="J70" s="2">
-        <f>$B70*$B70+$C70*$C70+$D70*$D70+$E70*$E70+$F70*$F70+$G70*$G70+$H70*$H70+$I70*$I70</f>
+        <f t="shared" si="25"/>
         <v>10189449248888</v>
       </c>
       <c r="K70">
-        <f>SQRT($J70)</f>
+        <f t="shared" si="26"/>
         <v>3192091.6730081546</v>
       </c>
       <c r="L70">
-        <f>B70/$K70</f>
+        <f t="shared" si="27"/>
         <v>0.65332741463364374</v>
       </c>
       <c r="M70">
-        <f>C70/$K70</f>
+        <f t="shared" si="28"/>
         <v>0.1214266505180692</v>
       </c>
       <c r="N70">
-        <f>D70/$K70</f>
+        <f t="shared" si="29"/>
         <v>0.30444551709386869</v>
       </c>
       <c r="O70">
-        <f>E70/$K70</f>
+        <f t="shared" si="30"/>
         <v>0.18301886657579949</v>
       </c>
       <c r="P70">
-        <f>F70/$K70</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q70">
-        <f>G70/$K70</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R70">
-        <f>H70/$K70</f>
+        <f t="shared" si="33"/>
         <v>0.36427995155420756</v>
       </c>
       <c r="S70">
-        <f>I70/$K70</f>
+        <f t="shared" si="34"/>
         <v>0.54729881813000703</v>
       </c>
       <c r="T70">
-        <f>(L70-$L$75)^2+(M70-$M$75)^2+(N70-$N$75)^2+(O70-$O$75)^2+(P70-$P$75)^2+(Q70-$Q$75)^2+(R70-$R$75)^2+(S70-$S$75)^2</f>
+        <f t="shared" si="35"/>
         <v>0.10796370378756216</v>
       </c>
       <c r="U70">
-        <f>(L70-$L$76)^2+(M70-$M$76)^2+(N70-$N$76)^2+(O70-$O$76)^2+(P70-$P$76)^2+(Q70-$Q$76)^2+(R70-$R$76)^2+(S70-$S$76)^2</f>
+        <f t="shared" si="36"/>
         <v>0.11479409308727757</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="3">
         <v>1.159586</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
         <v>0.22313</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
         <v>0.57076099999999996</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>0.24978700000000001</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="3">
         <v>2.977E-3</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="3">
         <v>2.6029999999999998E-3</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="3">
         <v>0.74756999999999996</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="3">
         <v>0.94772999999999996</v>
       </c>
       <c r="J71" s="2">
-        <f>$B71*$B71+$C71*$C71+$D71*$D71+$E71*$E71+$F71*$F71+$G71*$G71+$H71*$H71+$I71*$I71</f>
+        <f t="shared" si="25"/>
         <v>3.2396570487240002</v>
       </c>
       <c r="K71">
-        <f>SQRT($J71)</f>
+        <f t="shared" si="26"/>
         <v>1.7999047332356233</v>
       </c>
       <c r="L71">
-        <f>B71/$K71</f>
+        <f t="shared" si="27"/>
         <v>0.64424854193002445</v>
       </c>
       <c r="M71">
-        <f>C71/$K71</f>
+        <f t="shared" si="28"/>
         <v>0.1239676722216777</v>
       </c>
       <c r="N71">
-        <f>D71/$K71</f>
+        <f t="shared" si="29"/>
         <v>0.31710622760237073</v>
       </c>
       <c r="O71">
-        <f>E71/$K71</f>
+        <f t="shared" si="30"/>
         <v>0.13877790051197153</v>
       </c>
       <c r="P71">
-        <f>F71/$K71</f>
+        <f t="shared" si="31"/>
         <v>1.6539764272125422E-3</v>
       </c>
       <c r="Q71">
-        <f>G71/$K71</f>
+        <f t="shared" si="32"/>
         <v>1.4461876520101603E-3</v>
       </c>
       <c r="R71">
-        <f>H71/$K71</f>
+        <f t="shared" si="33"/>
         <v>0.41533864887177696</v>
       </c>
       <c r="S71">
-        <f>I71/$K71</f>
+        <f t="shared" si="34"/>
         <v>0.52654453455228167</v>
       </c>
       <c r="T71">
-        <f>(L71-$L$75)^2+(M71-$M$75)^2+(N71-$N$75)^2+(O71-$O$75)^2+(P71-$P$75)^2+(Q71-$Q$75)^2+(R71-$R$75)^2+(S71-$S$75)^2</f>
+        <f t="shared" si="35"/>
         <v>0.1304133338324307</v>
       </c>
       <c r="U71">
-        <f>(L71-$L$76)^2+(M71-$M$76)^2+(N71-$N$76)^2+(O71-$O$76)^2+(P71-$P$76)^2+(Q71-$Q$76)^2+(R71-$R$76)^2+(S71-$S$76)^2</f>
+        <f t="shared" si="36"/>
         <v>0.13808175140425755</v>
       </c>
     </row>
@@ -6582,128 +6583,128 @@
         <v>1450800</v>
       </c>
       <c r="J72" s="2">
-        <f>$B72*$B72+$C72*$C72+$D72*$D72+$E72*$E72+$F72*$F72+$G72*$G72+$H72*$H72+$I72*$I72</f>
+        <f t="shared" si="25"/>
         <v>7255070805888</v>
       </c>
       <c r="K72">
-        <f>SQRT($J72)</f>
+        <f t="shared" si="26"/>
         <v>2693523.863990813</v>
       </c>
       <c r="L72">
-        <f>B72/$K72</f>
+        <f t="shared" si="27"/>
         <v>0.6641574718961174</v>
       </c>
       <c r="M72">
-        <f>C72/$K72</f>
+        <f t="shared" si="28"/>
         <v>0.13009426227277532</v>
       </c>
       <c r="N72">
-        <f>D72/$K72</f>
+        <f t="shared" si="29"/>
         <v>0.27843673858853846</v>
       </c>
       <c r="O72">
-        <f>E72/$K72</f>
+        <f t="shared" si="30"/>
         <v>0.14834247631576314</v>
       </c>
       <c r="P72">
-        <f>F72/$K72</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q72">
-        <f>G72/$K72</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R72">
-        <f>H72/$K72</f>
+        <f t="shared" si="33"/>
         <v>0.3902827868183259</v>
       </c>
       <c r="S72">
-        <f>I72/$K72</f>
+        <f t="shared" si="34"/>
         <v>0.53862526313408909</v>
       </c>
       <c r="T72">
-        <f>(L72-$L$75)^2+(M72-$M$75)^2+(N72-$N$75)^2+(O72-$O$75)^2+(P72-$P$75)^2+(Q72-$Q$75)^2+(R72-$R$75)^2+(S72-$S$75)^2</f>
+        <f t="shared" si="35"/>
         <v>0.12205452243683812</v>
       </c>
       <c r="U72">
-        <f>(L72-$L$76)^2+(M72-$M$76)^2+(N72-$N$76)^2+(O72-$O$76)^2+(P72-$P$76)^2+(Q72-$Q$76)^2+(R72-$R$76)^2+(S72-$S$76)^2</f>
+        <f t="shared" si="36"/>
         <v>0.12708226598253378</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>0.92149999999999999</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <v>0.18825800000000001</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
         <v>0.37394699999999997</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>0.18956100000000001</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
         <v>0.58331699999999997</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="3">
         <v>0.72201899999999997</v>
       </c>
       <c r="J73" s="2">
-        <f>$B73*$B73+$C73*$C73+$D73*$D73+$E73*$E73+$F73*$F73+$G73*$G73+$H73*$H73+$I73*$I73</f>
+        <f t="shared" si="25"/>
         <v>1.9219432149440001</v>
       </c>
       <c r="K73">
-        <f>SQRT($J73)</f>
+        <f t="shared" si="26"/>
         <v>1.3863416660203214</v>
       </c>
       <c r="L73">
-        <f>B73/$K73</f>
+        <f t="shared" si="27"/>
         <v>0.6646990583824034</v>
       </c>
       <c r="M73">
-        <f>C73/$K73</f>
+        <f t="shared" si="28"/>
         <v>0.13579480774059088</v>
       </c>
       <c r="N73">
-        <f>D73/$K73</f>
+        <f t="shared" si="29"/>
         <v>0.26973653693426436</v>
       </c>
       <c r="O73">
-        <f>E73/$K73</f>
+        <f t="shared" si="30"/>
         <v>0.13673469148782069</v>
       </c>
       <c r="P73">
-        <f>F73/$K73</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q73">
-        <f>G73/$K73</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R73">
-        <f>H73/$K73</f>
+        <f t="shared" si="33"/>
         <v>0.42075991387786044</v>
       </c>
       <c r="S73">
-        <f>I73/$K73</f>
+        <f t="shared" si="34"/>
         <v>0.52080884366164348</v>
       </c>
       <c r="T73">
-        <f>(L73-$L$75)^2+(M73-$M$75)^2+(N73-$N$75)^2+(O73-$O$75)^2+(P73-$P$75)^2+(Q73-$Q$75)^2+(R73-$R$75)^2+(S73-$S$75)^2</f>
+        <f t="shared" si="35"/>
         <v>0.14491524573285047</v>
       </c>
       <c r="U73">
-        <f>(L73-$L$76)^2+(M73-$M$76)^2+(N73-$N$76)^2+(O73-$O$76)^2+(P73-$P$76)^2+(Q73-$Q$76)^2+(R73-$R$76)^2+(S73-$S$76)^2</f>
+        <f t="shared" si="36"/>
         <v>0.15032360871875686</v>
       </c>
     </row>
@@ -6736,51 +6737,51 @@
         <v>18.901375000000002</v>
       </c>
       <c r="J74" s="2">
-        <f>$B74*$B74+$C74*$C74+$D74*$D74+$E74*$E74+$F74*$F74+$G74*$G74+$H74*$H74+$I74*$I74</f>
+        <f t="shared" si="25"/>
         <v>871.06593416782698</v>
       </c>
       <c r="K74">
-        <f>SQRT($J74)</f>
+        <f t="shared" si="26"/>
         <v>29.513826152632717</v>
       </c>
       <c r="L74">
-        <f>B74/$K74</f>
+        <f t="shared" si="27"/>
         <v>0.64189234232207737</v>
       </c>
       <c r="M74">
-        <f>C74/$K74</f>
+        <f t="shared" si="28"/>
         <v>6.4953455715500166E-2</v>
       </c>
       <c r="N74">
-        <f>D74/$K74</f>
+        <f t="shared" si="29"/>
         <v>0.37711494749748548</v>
       </c>
       <c r="O74">
-        <f>E74/$K74</f>
+        <f t="shared" si="30"/>
         <v>7.2020143677995849E-2</v>
       </c>
       <c r="P74">
-        <f>F74/$K74</f>
+        <f t="shared" si="31"/>
         <v>6.0498797775859495E-2</v>
       </c>
       <c r="Q74">
-        <f>G74/$K74</f>
+        <f t="shared" si="32"/>
         <v>6.9590333336594118E-2</v>
       </c>
       <c r="R74">
-        <f>H74/$K74</f>
+        <f t="shared" si="33"/>
         <v>0.13306512614426569</v>
       </c>
       <c r="S74">
-        <f>I74/$K74</f>
+        <f t="shared" si="34"/>
         <v>0.64042442014296219</v>
       </c>
       <c r="T74">
-        <f>(L74-$L$75)^2+(M74-$M$75)^2+(N74-$N$75)^2+(O74-$O$75)^2+(P74-$P$75)^2+(Q74-$Q$75)^2+(R74-$R$75)^2+(S74-$S$75)^2</f>
+        <f t="shared" si="35"/>
         <v>3.6061051675620281E-3</v>
       </c>
       <c r="U74">
-        <f>(L74-$L$76)^2+(M74-$M$76)^2+(N74-$N$76)^2+(O74-$O$76)^2+(P74-$P$76)^2+(Q74-$Q$76)^2+(R74-$R$76)^2+(S74-$S$76)^2</f>
+        <f t="shared" si="36"/>
         <v>6.6740058572593063E-3</v>
       </c>
     </row>
@@ -6813,51 +6814,51 @@
         <v>0.22055768000000001</v>
       </c>
       <c r="J75" s="2">
-        <f>$B75*$B75+$C75*$C75+$D75*$D75+$E75*$E75+$F75*$F75+$G75*$G75+$H75*$H75+$I75*$I75</f>
+        <f t="shared" si="25"/>
         <v>0.11970717009526749</v>
       </c>
       <c r="K75">
-        <f>SQRT($J75)</f>
+        <f t="shared" si="26"/>
         <v>0.34598723978676943</v>
       </c>
       <c r="L75">
-        <f>B75/$K75</f>
+        <f t="shared" si="27"/>
         <v>0.65167701022430036</v>
       </c>
       <c r="M75">
-        <f>C75/$K75</f>
+        <f t="shared" si="28"/>
         <v>6.352572428262275E-2</v>
       </c>
       <c r="N75">
-        <f>D75/$K75</f>
+        <f t="shared" si="29"/>
         <v>0.37892247147842179</v>
       </c>
       <c r="O75">
-        <f>E75/$K75</f>
+        <f t="shared" si="30"/>
         <v>5.690574025832295E-2</v>
       </c>
       <c r="P75">
-        <f>F75/$K75</f>
+        <f t="shared" si="31"/>
         <v>8.1519682683622918E-2</v>
       </c>
       <c r="Q75">
-        <f>G75/$K75</f>
+        <f t="shared" si="32"/>
         <v>2.5085722829977904E-2</v>
       </c>
       <c r="R75">
-        <f>H75/$K75</f>
+        <f t="shared" si="33"/>
         <v>0.10398990443166004</v>
       </c>
       <c r="S75">
-        <f>I75/$K75</f>
+        <f t="shared" si="34"/>
         <v>0.63747345172593306</v>
       </c>
       <c r="T75">
-        <f>(L75-$L$75)^2+(M75-$M$75)^2+(N75-$N$75)^2+(O75-$O$75)^2+(P75-$P$75)^2+(Q75-$Q$75)^2+(R75-$R$75)^2+(S75-$S$75)^2</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U75">
-        <f>(L75-$L$76)^2+(M75-$M$76)^2+(N75-$N$76)^2+(O75-$O$76)^2+(P75-$P$76)^2+(Q75-$Q$76)^2+(R75-$R$76)^2+(S75-$S$76)^2</f>
+        <f t="shared" si="36"/>
         <v>4.6639911376625447E-3</v>
       </c>
     </row>
@@ -6890,51 +6891,51 @@
         <v>0.33929925999999999</v>
       </c>
       <c r="J76" s="2">
-        <f>$B76*$B76+$C76*$C76+$D76*$D76+$E76*$E76+$F76*$F76+$G76*$G76+$H76*$H76+$I76*$I76</f>
+        <f t="shared" si="25"/>
         <v>0.26752812510904195</v>
       </c>
       <c r="K76">
-        <f>SQRT($J76)</f>
+        <f t="shared" si="26"/>
         <v>0.51723121049395493</v>
       </c>
       <c r="L76">
-        <f>B76/$K76</f>
+        <f t="shared" si="27"/>
         <v>0.65771676785536115</v>
       </c>
       <c r="M76">
-        <f>C76/$K76</f>
+        <f t="shared" si="28"/>
         <v>3.5478659500216822E-2</v>
       </c>
       <c r="N76">
-        <f>D76/$K76</f>
+        <f t="shared" si="29"/>
         <v>0.35010913171125513</v>
       </c>
       <c r="O76">
-        <f>E76/$K76</f>
+        <f t="shared" si="30"/>
         <v>3.8685252540911499E-2</v>
       </c>
       <c r="P76">
-        <f>F76/$K76</f>
+        <f t="shared" si="31"/>
         <v>3.3752951573296525E-2</v>
       </c>
       <c r="Q76">
-        <f>G76/$K76</f>
+        <f t="shared" si="32"/>
         <v>3.0030651060608295E-2</v>
       </c>
       <c r="R76">
-        <f>H76/$K76</f>
+        <f t="shared" si="33"/>
         <v>9.8544710693933862E-2</v>
       </c>
       <c r="S76">
-        <f>I76/$K76</f>
+        <f t="shared" si="34"/>
         <v>0.65599146593642288</v>
       </c>
       <c r="T76">
-        <f>(L76-$L$75)^2+(M76-$M$75)^2+(N76-$N$75)^2+(O76-$O$75)^2+(P76-$P$75)^2+(Q76-$Q$75)^2+(R76-$R$75)^2+(S76-$S$75)^2</f>
+        <f t="shared" si="35"/>
         <v>4.6639911376625447E-3</v>
       </c>
       <c r="U76">
-        <f>(L76-$L$76)^2+(M76-$M$76)^2+(N76-$N$76)^2+(O76-$O$76)^2+(P76-$P$76)^2+(Q76-$Q$76)^2+(R76-$R$76)^2+(S76-$S$76)^2</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -8170,8 +8171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView topLeftCell="F18" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:I82"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A133" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
